--- a/output/fit_clients/fit_round_286.xlsx
+++ b/output/fit_clients/fit_round_286.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:J101"/>
+  <dimension ref="A1:H101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,16 +469,6 @@
           <t>isSelected</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>involvement_history</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>reward</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -490,28 +480,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" t="n">
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1588770568.475762</v>
+        <v>1871410535.318078</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07733103858016646</v>
+        <v>0.07508564239507326</v>
       </c>
       <c r="G2" t="n">
-        <v>0.03946883686642391</v>
+        <v>0.0341828759232111</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
-      </c>
-      <c r="I2" t="n">
-        <v>1</v>
-      </c>
-      <c r="J2" t="n">
-        <v>794385224.5568225</v>
       </c>
     </row>
     <row r="3">
@@ -524,28 +508,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1940995316.418346</v>
+        <v>1945233831.654399</v>
       </c>
       <c r="F3" t="n">
-        <v>0.156534277632373</v>
+        <v>0.1384753906895026</v>
       </c>
       <c r="G3" t="n">
-        <v>0.046875228170937</v>
+        <v>0.03680930272675395</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5</v>
-      </c>
-      <c r="J3" t="n">
-        <v>970497689.1316701</v>
       </c>
     </row>
     <row r="4">
@@ -564,22 +542,16 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4373704280.563406</v>
+        <v>4440026596.858335</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1215522888857435</v>
+        <v>0.128590149107777</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02455310173757609</v>
+        <v>0.03830040132421288</v>
       </c>
       <c r="H4" t="b">
-        <v>1</v>
-      </c>
-      <c r="I4" t="n">
-        <v>103</v>
-      </c>
-      <c r="J4" t="n">
-        <v>2186852180.94087</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -592,28 +564,22 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3266134714.191914</v>
+        <v>2772962854.761405</v>
       </c>
       <c r="F5" t="n">
-        <v>0.07273974056070533</v>
+        <v>0.1012354273760121</v>
       </c>
       <c r="G5" t="n">
-        <v>0.03405296535716686</v>
+        <v>0.04258434234688771</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
-      </c>
-      <c r="I5" t="n">
-        <v>111</v>
-      </c>
-      <c r="J5" t="n">
-        <v>1633067409.344875</v>
       </c>
     </row>
     <row r="6">
@@ -626,28 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2436745504.888545</v>
+        <v>2872992316.780108</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1313839663092865</v>
+        <v>0.1013801925099999</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03928898039128363</v>
+        <v>0.04081645550522513</v>
       </c>
       <c r="H6" t="b">
-        <v>0</v>
-      </c>
-      <c r="I6" t="n">
-        <v>53</v>
-      </c>
-      <c r="J6" t="n">
-        <v>1218372734.772794</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -660,28 +620,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2765004467.168604</v>
+        <v>2594244996.162552</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06392421969196752</v>
+        <v>0.06890572315969976</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0455249497539089</v>
+        <v>0.04511237005199694</v>
       </c>
       <c r="H7" t="b">
-        <v>1</v>
-      </c>
-      <c r="I7" t="n">
-        <v>89</v>
-      </c>
-      <c r="J7" t="n">
-        <v>1382502221.151375</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -694,28 +648,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>3684770839.553374</v>
+        <v>2582056967.940135</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2039445589979978</v>
+        <v>0.2211198629923315</v>
       </c>
       <c r="G8" t="n">
-        <v>0.03227092193594804</v>
+        <v>0.02223761509530087</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
-      <c r="I8" t="n">
-        <v>91</v>
-      </c>
-      <c r="J8" t="n">
-        <v>1842385547.294487</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9">
@@ -728,28 +676,22 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2055446290.903554</v>
+        <v>1747192881.523072</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1357198985806164</v>
+        <v>0.1535001700031343</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0293859648776043</v>
+        <v>0.03740118842082439</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
-      </c>
-      <c r="I9" t="n">
-        <v>0</v>
-      </c>
-      <c r="J9" t="n">
-        <v>1027723164.372526</v>
       </c>
     </row>
     <row r="10">
@@ -762,28 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4121979898.673793</v>
+        <v>3655206150.30406</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1358499413499359</v>
+        <v>0.2087509173558825</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03637316062585186</v>
+        <v>0.03392507592402666</v>
       </c>
       <c r="H10" t="b">
-        <v>1</v>
-      </c>
-      <c r="I10" t="n">
-        <v>120</v>
-      </c>
-      <c r="J10" t="n">
-        <v>2060989980.654661</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -796,28 +732,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>2761980096.729674</v>
+        <v>3173615388.718956</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1167384004306793</v>
+        <v>0.1707765253086561</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03172032242639116</v>
+        <v>0.04299860529927377</v>
       </c>
       <c r="H11" t="b">
-        <v>1</v>
-      </c>
-      <c r="I11" t="n">
-        <v>118</v>
-      </c>
-      <c r="J11" t="n">
-        <v>1380989974.693982</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -830,28 +760,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2161443189.021776</v>
+        <v>2402503793.997268</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1584573120934888</v>
+        <v>0.1290793170549103</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03253519943762689</v>
+        <v>0.03300145480779589</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
-      </c>
-      <c r="I12" t="n">
-        <v>97</v>
-      </c>
-      <c r="J12" t="n">
-        <v>1080721535.749945</v>
       </c>
     </row>
     <row r="13">
@@ -870,22 +794,16 @@
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3367778617.550999</v>
+        <v>3661468979.551486</v>
       </c>
       <c r="F13" t="n">
-        <v>0.06365840182035207</v>
+        <v>0.088043450547772</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02492431859679839</v>
+        <v>0.02227075404055236</v>
       </c>
       <c r="H13" t="b">
         <v>0</v>
-      </c>
-      <c r="I13" t="n">
-        <v>96</v>
-      </c>
-      <c r="J13" t="n">
-        <v>1683889395.817513</v>
       </c>
     </row>
     <row r="14">
@@ -898,28 +816,22 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2471079130.690551</v>
+        <v>3820141276.416638</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1764281297764206</v>
+        <v>0.1365452917361194</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04100582010728715</v>
+        <v>0.04198943621883411</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
-      </c>
-      <c r="I14" t="n">
-        <v>91</v>
-      </c>
-      <c r="J14" t="n">
-        <v>1235539638.086725</v>
       </c>
     </row>
     <row r="15">
@@ -938,22 +850,16 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1780010952.099826</v>
+        <v>1717970878.377441</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09285834367855647</v>
+        <v>0.07901510819727607</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04686006669078947</v>
+        <v>0.04883068617225652</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
-      </c>
-      <c r="I15" t="n">
-        <v>0</v>
-      </c>
-      <c r="J15" t="n">
-        <v>890005625.0334406</v>
       </c>
     </row>
     <row r="16">
@@ -966,28 +872,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2355765640.477279</v>
+        <v>2332112910.53932</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09388039501658885</v>
+        <v>0.08425141429615704</v>
       </c>
       <c r="G16" t="n">
-        <v>0.04987289927665461</v>
+        <v>0.0356403840412523</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
-      </c>
-      <c r="I16" t="n">
-        <v>56</v>
-      </c>
-      <c r="J16" t="n">
-        <v>1177882863.935392</v>
       </c>
     </row>
     <row r="17">
@@ -1006,22 +906,16 @@
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4711068326.365637</v>
+        <v>4912500124.441167</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1254427230298535</v>
+        <v>0.1282845366899366</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04380597042852318</v>
+        <v>0.04440730636052759</v>
       </c>
       <c r="H17" t="b">
-        <v>0</v>
-      </c>
-      <c r="I17" t="n">
-        <v>84</v>
-      </c>
-      <c r="J17" t="n">
-        <v>2355534162.655456</v>
+        <v>1</v>
       </c>
     </row>
     <row r="18">
@@ -1034,28 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3719556637.156945</v>
+        <v>2549206121.008667</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1243557246784608</v>
+        <v>0.1241707446646589</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02543602062891342</v>
+        <v>0.02093432546988261</v>
       </c>
       <c r="H18" t="b">
         <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>93</v>
-      </c>
-      <c r="J18" t="n">
-        <v>1859778296.716407</v>
       </c>
     </row>
     <row r="19">
@@ -1074,22 +962,16 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>833474987.024096</v>
+        <v>1222091335.674377</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1303032017594378</v>
+        <v>0.1380131605649891</v>
       </c>
       <c r="G19" t="n">
-        <v>0.02360962573266165</v>
+        <v>0.01826670083634884</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
-      </c>
-      <c r="I19" t="n">
-        <v>0</v>
-      </c>
-      <c r="J19" t="n">
-        <v>416737482.2088489</v>
       </c>
     </row>
     <row r="20">
@@ -1108,22 +990,16 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1845094765.008429</v>
+        <v>1775854106.768833</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1239606303478238</v>
+        <v>0.1188617959354936</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02678381160384479</v>
+        <v>0.02192622613120944</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
-      </c>
-      <c r="I20" t="n">
-        <v>43</v>
-      </c>
-      <c r="J20" t="n">
-        <v>922547425.334615</v>
       </c>
     </row>
     <row r="21">
@@ -1136,28 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>1886822640.215425</v>
+        <v>2228845025.278306</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08390206353481351</v>
+        <v>0.0792106269865418</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04399892216126319</v>
+        <v>0.03046870933166189</v>
       </c>
       <c r="H21" t="b">
-        <v>0</v>
-      </c>
-      <c r="I21" t="n">
-        <v>23</v>
-      </c>
-      <c r="J21" t="n">
-        <v>943411366.8839231</v>
+        <v>1</v>
       </c>
     </row>
     <row r="22">
@@ -1176,22 +1046,16 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3731325406.96785</v>
+        <v>3548061047.874278</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1109163259545806</v>
+        <v>0.09408767167937203</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05177618205995002</v>
+        <v>0.05142058909576607</v>
       </c>
       <c r="H22" t="b">
-        <v>1</v>
-      </c>
-      <c r="I22" t="n">
-        <v>78</v>
-      </c>
-      <c r="J22" t="n">
-        <v>1865662721.222479</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23">
@@ -1204,28 +1068,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1073999583.021882</v>
+        <v>1119005450.011232</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1281286970778772</v>
+        <v>0.1549612560571035</v>
       </c>
       <c r="G23" t="n">
-        <v>0.05299905264017375</v>
+        <v>0.04419397745271315</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
-      </c>
-      <c r="I23" t="n">
-        <v>0</v>
-      </c>
-      <c r="J23" t="n">
-        <v>536999849.2178895</v>
       </c>
     </row>
     <row r="24">
@@ -1238,28 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3157592092.440899</v>
+        <v>4136663668.101719</v>
       </c>
       <c r="F24" t="n">
-        <v>0.13098636693279</v>
+        <v>0.1411944535624853</v>
       </c>
       <c r="G24" t="n">
-        <v>0.02891204665259079</v>
+        <v>0.03620435612439421</v>
       </c>
       <c r="H24" t="b">
         <v>0</v>
-      </c>
-      <c r="I24" t="n">
-        <v>84</v>
-      </c>
-      <c r="J24" t="n">
-        <v>1578796070.864875</v>
       </c>
     </row>
     <row r="25">
@@ -1272,28 +1124,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1184930973.611632</v>
+        <v>1258131098.840657</v>
       </c>
       <c r="F25" t="n">
-        <v>0.1111635158055677</v>
+        <v>0.07861006910437611</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02883804872200685</v>
+        <v>0.02249118787303786</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
-      </c>
-      <c r="I25" t="n">
-        <v>0</v>
-      </c>
-      <c r="J25" t="n">
-        <v>592465508.244859</v>
       </c>
     </row>
     <row r="26">
@@ -1306,28 +1152,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1045639027.526191</v>
+        <v>1403759193.98546</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1121569095013989</v>
+        <v>0.1247484842781508</v>
       </c>
       <c r="G26" t="n">
-        <v>0.02790058698087861</v>
+        <v>0.03454293086676653</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
-      </c>
-      <c r="I26" t="n">
-        <v>0</v>
-      </c>
-      <c r="J26" t="n">
-        <v>522819497.0231621</v>
       </c>
     </row>
     <row r="27">
@@ -1346,22 +1186,16 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3381269867.904452</v>
+        <v>3254063759.479032</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1434485777852217</v>
+        <v>0.1114855493208085</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01777589654464714</v>
+        <v>0.01694913748640555</v>
       </c>
       <c r="H27" t="b">
-        <v>0</v>
-      </c>
-      <c r="I27" t="n">
-        <v>67</v>
-      </c>
-      <c r="J27" t="n">
-        <v>1690634974.835146</v>
+        <v>1</v>
       </c>
     </row>
     <row r="28">
@@ -1374,28 +1208,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2922997553.831463</v>
+        <v>2514495260.968435</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1305911582612346</v>
+        <v>0.1394150137898847</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04009703360987751</v>
+        <v>0.03476372102282037</v>
       </c>
       <c r="H28" t="b">
-        <v>1</v>
-      </c>
-      <c r="I28" t="n">
-        <v>93</v>
-      </c>
-      <c r="J28" t="n">
-        <v>1461498781.47922</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29">
@@ -1414,22 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4466706882.946245</v>
+        <v>4860192413.975163</v>
       </c>
       <c r="F29" t="n">
-        <v>0.111458513585579</v>
+        <v>0.09873270837094648</v>
       </c>
       <c r="G29" t="n">
-        <v>0.04659191274454538</v>
+        <v>0.03749457576572794</v>
       </c>
       <c r="H29" t="b">
-        <v>1</v>
-      </c>
-      <c r="I29" t="n">
-        <v>126</v>
-      </c>
-      <c r="J29" t="n">
-        <v>2233353425.966228</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -1442,28 +1264,22 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1683816188.967891</v>
+        <v>2180682019.925599</v>
       </c>
       <c r="F30" t="n">
-        <v>0.08936031072916854</v>
+        <v>0.1361610211735463</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03977413865910896</v>
+        <v>0.03400106400640857</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
-      </c>
-      <c r="I30" t="n">
-        <v>0</v>
-      </c>
-      <c r="J30" t="n">
-        <v>841908095.9065614</v>
       </c>
     </row>
     <row r="31">
@@ -1482,22 +1298,16 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1355787456.07304</v>
+        <v>1399579712.1722</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08432826663750034</v>
+        <v>0.09514321073364057</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05116364481301991</v>
+        <v>0.03249358532047078</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
-      </c>
-      <c r="I31" t="n">
-        <v>0</v>
-      </c>
-      <c r="J31" t="n">
-        <v>677893642.8328391</v>
       </c>
     </row>
     <row r="32">
@@ -1510,28 +1320,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1412385149.750058</v>
+        <v>1347785202.352487</v>
       </c>
       <c r="F32" t="n">
-        <v>0.0767954193775445</v>
+        <v>0.08282130413878491</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0235664131930563</v>
+        <v>0.03148506697493653</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
-      </c>
-      <c r="I32" t="n">
-        <v>0</v>
-      </c>
-      <c r="J32" t="n">
-        <v>706192625.0930227</v>
       </c>
     </row>
     <row r="33">
@@ -1544,28 +1348,22 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2479746198.76963</v>
+        <v>2686208223.677422</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1475930842975021</v>
+        <v>0.1728832106681004</v>
       </c>
       <c r="G33" t="n">
-        <v>0.04454693552481966</v>
+        <v>0.05112275863414766</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
-      </c>
-      <c r="I33" t="n">
-        <v>88</v>
-      </c>
-      <c r="J33" t="n">
-        <v>1239873139.308206</v>
       </c>
     </row>
     <row r="34">
@@ -1578,28 +1376,22 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1350192543.983291</v>
+        <v>1377545228.575797</v>
       </c>
       <c r="F34" t="n">
-        <v>0.08772633892229006</v>
+        <v>0.1112558670494764</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02779832040973662</v>
+        <v>0.01896640308260594</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
-      </c>
-      <c r="I34" t="n">
-        <v>0</v>
-      </c>
-      <c r="J34" t="n">
-        <v>675096252.4182962</v>
       </c>
     </row>
     <row r="35">
@@ -1612,28 +1404,22 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>843302220.8156372</v>
+        <v>1261824778.481071</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07951698178901229</v>
+        <v>0.1171340138376728</v>
       </c>
       <c r="G35" t="n">
-        <v>0.04469242424670057</v>
+        <v>0.03560280515046011</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
-      </c>
-      <c r="I35" t="n">
-        <v>0</v>
-      </c>
-      <c r="J35" t="n">
-        <v>421651163.3333845</v>
       </c>
     </row>
     <row r="36">
@@ -1646,28 +1432,22 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2257813263.498851</v>
+        <v>3013009759.241639</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1224388871967616</v>
+        <v>0.1661158350931979</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01813585661476935</v>
+        <v>0.01810103137928484</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
-      </c>
-      <c r="I36" t="n">
-        <v>74</v>
-      </c>
-      <c r="J36" t="n">
-        <v>1128906673.141675</v>
       </c>
     </row>
     <row r="37">
@@ -1680,28 +1460,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2107526251.074842</v>
+        <v>2940334891.580274</v>
       </c>
       <c r="F37" t="n">
-        <v>0.07979932223888757</v>
+        <v>0.1030263208967005</v>
       </c>
       <c r="G37" t="n">
-        <v>0.04058846434863564</v>
+        <v>0.03528663442524275</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
-      </c>
-      <c r="I37" t="n">
-        <v>76</v>
-      </c>
-      <c r="J37" t="n">
-        <v>1053763167.593514</v>
       </c>
     </row>
     <row r="38">
@@ -1714,28 +1488,22 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2087589658.864393</v>
+        <v>2120255304.904944</v>
       </c>
       <c r="F38" t="n">
-        <v>0.074526566012384</v>
+        <v>0.09972826247833246</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03326742563887904</v>
+        <v>0.03114175495187892</v>
       </c>
       <c r="H38" t="b">
-        <v>0</v>
-      </c>
-      <c r="I38" t="n">
-        <v>0</v>
-      </c>
-      <c r="J38" t="n">
-        <v>1043794795.685641</v>
+        <v>1</v>
       </c>
     </row>
     <row r="39">
@@ -1748,28 +1516,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>1541294875.940225</v>
+        <v>2177468833.479405</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1927721812564324</v>
+        <v>0.1821702043773168</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02867619448070653</v>
+        <v>0.02020789535467755</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
-      </c>
-      <c r="I39" t="n">
-        <v>0</v>
-      </c>
-      <c r="J39" t="n">
-        <v>770647502.132429</v>
       </c>
     </row>
     <row r="40">
@@ -1788,22 +1550,16 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1731204573.331618</v>
+        <v>1320710262.060731</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1375175035231496</v>
+        <v>0.1424002786472875</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05950140511831196</v>
+        <v>0.05191975636923254</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
-      </c>
-      <c r="I40" t="n">
-        <v>0</v>
-      </c>
-      <c r="J40" t="n">
-        <v>865602194.9689783</v>
       </c>
     </row>
     <row r="41">
@@ -1816,28 +1572,22 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2760924045.826191</v>
+        <v>2919637750.888351</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1660761305838842</v>
+        <v>0.148181003051292</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04343653813905464</v>
+        <v>0.03218973394470053</v>
       </c>
       <c r="H41" t="b">
-        <v>1</v>
-      </c>
-      <c r="I41" t="n">
-        <v>69</v>
-      </c>
-      <c r="J41" t="n">
-        <v>1380462022.611187</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">
@@ -1850,28 +1600,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3153565272.65522</v>
+        <v>3789127841.983663</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1225198475795728</v>
+        <v>0.1223124200693706</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0417938672605255</v>
+        <v>0.04590075272456155</v>
       </c>
       <c r="H42" t="b">
-        <v>1</v>
-      </c>
-      <c r="I42" t="n">
-        <v>93</v>
-      </c>
-      <c r="J42" t="n">
-        <v>1576782607.358706</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43">
@@ -1890,22 +1634,16 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2513708449.234197</v>
+        <v>2626288711.216191</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1763453749195515</v>
+        <v>0.1888518641866947</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01631045403889087</v>
+        <v>0.01887055396200708</v>
       </c>
       <c r="H43" t="b">
-        <v>1</v>
-      </c>
-      <c r="I43" t="n">
-        <v>104</v>
-      </c>
-      <c r="J43" t="n">
-        <v>1256854271.91065</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44">
@@ -1918,28 +1656,22 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>1588538583.849059</v>
+        <v>2149063511.205239</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06636444942005337</v>
+        <v>0.08299992190553587</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03402422902385784</v>
+        <v>0.02844913975826281</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
-      </c>
-      <c r="I44" t="n">
-        <v>0</v>
-      </c>
-      <c r="J44" t="n">
-        <v>794269316.1672837</v>
       </c>
     </row>
     <row r="45">
@@ -1952,28 +1684,22 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2389870942.484664</v>
+        <v>2023078022.201655</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1194833036186685</v>
+        <v>0.1245970924868477</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05389267584473694</v>
+        <v>0.04407665180779546</v>
       </c>
       <c r="H45" t="b">
-        <v>0</v>
-      </c>
-      <c r="I45" t="n">
-        <v>0</v>
-      </c>
-      <c r="J45" t="n">
-        <v>1194935501.438323</v>
+        <v>1</v>
       </c>
     </row>
     <row r="46">
@@ -1992,22 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>3753472733.242743</v>
+        <v>4439928287.1336</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1744388306408754</v>
+        <v>0.1128293988084144</v>
       </c>
       <c r="G46" t="n">
-        <v>0.03833378987529788</v>
+        <v>0.04331729082697432</v>
       </c>
       <c r="H46" t="b">
         <v>0</v>
-      </c>
-      <c r="I46" t="n">
-        <v>102</v>
-      </c>
-      <c r="J46" t="n">
-        <v>1876736322.038194</v>
       </c>
     </row>
     <row r="47">
@@ -2020,28 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>4742843488.341783</v>
+        <v>5034278196.380929</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1934395708637701</v>
+        <v>0.1621370561220281</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05701201281498067</v>
+        <v>0.03661612439497146</v>
       </c>
       <c r="H47" t="b">
         <v>0</v>
-      </c>
-      <c r="I47" t="n">
-        <v>77</v>
-      </c>
-      <c r="J47" t="n">
-        <v>2371421785.434741</v>
       </c>
     </row>
     <row r="48">
@@ -2054,28 +1768,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4663893287.225901</v>
+        <v>4016898018.48026</v>
       </c>
       <c r="F48" t="n">
-        <v>0.09237044785130953</v>
+        <v>0.07181403144851729</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02820842182874784</v>
+        <v>0.03659107837490221</v>
       </c>
       <c r="H48" t="b">
         <v>1</v>
-      </c>
-      <c r="I48" t="n">
-        <v>96</v>
-      </c>
-      <c r="J48" t="n">
-        <v>2331946639.412764</v>
       </c>
     </row>
     <row r="49">
@@ -2088,28 +1796,22 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1423265913.751211</v>
+        <v>1281130717.942328</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1789183785638168</v>
+        <v>0.1213242433683959</v>
       </c>
       <c r="G49" t="n">
-        <v>0.03457384106541177</v>
+        <v>0.02940098094741703</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
-      </c>
-      <c r="I49" t="n">
-        <v>0</v>
-      </c>
-      <c r="J49" t="n">
-        <v>711633000.8364944</v>
       </c>
     </row>
     <row r="50">
@@ -2128,22 +1830,16 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3347844435.380327</v>
+        <v>4175014586.643531</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1358068215297249</v>
+        <v>0.1337392856277891</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03324305646059551</v>
+        <v>0.04662153518490132</v>
       </c>
       <c r="H50" t="b">
-        <v>1</v>
-      </c>
-      <c r="I50" t="n">
-        <v>97</v>
-      </c>
-      <c r="J50" t="n">
-        <v>1673922252.792387</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51">
@@ -2162,22 +1858,16 @@
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>996521833.0159671</v>
+        <v>949413972.3372803</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1223225050399327</v>
+        <v>0.1872777532029826</v>
       </c>
       <c r="G51" t="n">
-        <v>0.04036921249999193</v>
+        <v>0.03613398747157742</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
-      </c>
-      <c r="I51" t="n">
-        <v>0</v>
-      </c>
-      <c r="J51" t="n">
-        <v>498261001.0426713</v>
       </c>
     </row>
     <row r="52">
@@ -2190,28 +1880,22 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3871864270.541718</v>
+        <v>3396671530.123475</v>
       </c>
       <c r="F52" t="n">
-        <v>0.08385579505827113</v>
+        <v>0.1005753909264967</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04058905554954081</v>
+        <v>0.0619783039278425</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
-      </c>
-      <c r="I52" t="n">
-        <v>118</v>
-      </c>
-      <c r="J52" t="n">
-        <v>1935932199.290824</v>
       </c>
     </row>
     <row r="53">
@@ -2224,28 +1908,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3206671740.586992</v>
+        <v>3307267529.171683</v>
       </c>
       <c r="F53" t="n">
-        <v>0.1986620190260298</v>
+        <v>0.183606452544355</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03302160404625281</v>
+        <v>0.03253871920040063</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
-      </c>
-      <c r="I53" t="n">
-        <v>82</v>
-      </c>
-      <c r="J53" t="n">
-        <v>1603335888.487878</v>
       </c>
     </row>
     <row r="54">
@@ -2258,28 +1936,22 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4600723357.785321</v>
+        <v>4175648923.715821</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1378118706974844</v>
+        <v>0.1130701683546576</v>
       </c>
       <c r="G54" t="n">
-        <v>0.03492087459557466</v>
+        <v>0.04478986403904525</v>
       </c>
       <c r="H54" t="b">
-        <v>0</v>
-      </c>
-      <c r="I54" t="n">
-        <v>94</v>
-      </c>
-      <c r="J54" t="n">
-        <v>2300361790.152844</v>
+        <v>1</v>
       </c>
     </row>
     <row r="55">
@@ -2298,22 +1970,16 @@
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4001567237.688419</v>
+        <v>4874402446.420336</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1983357652397068</v>
+        <v>0.1864187429572805</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02513087976846249</v>
+        <v>0.02304799856732844</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
-      </c>
-      <c r="I55" t="n">
-        <v>73</v>
-      </c>
-      <c r="J55" t="n">
-        <v>2000783593.809484</v>
       </c>
     </row>
     <row r="56">
@@ -2326,28 +1992,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1494811770.009231</v>
+        <v>1822625471.084494</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1070795861170594</v>
+        <v>0.157160635178703</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03855357229104722</v>
+        <v>0.04941631053111766</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
-      </c>
-      <c r="I56" t="n">
-        <v>0</v>
-      </c>
-      <c r="J56" t="n">
-        <v>747405928.0272526</v>
       </c>
     </row>
     <row r="57">
@@ -2366,22 +2026,16 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>2896269977.587656</v>
+        <v>4335390709.647953</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1284551080670452</v>
+        <v>0.121523537919963</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02519601359710573</v>
+        <v>0.02462641011075492</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
-      </c>
-      <c r="I57" t="n">
-        <v>91</v>
-      </c>
-      <c r="J57" t="n">
-        <v>1448134984.487663</v>
       </c>
     </row>
     <row r="58">
@@ -2400,22 +2054,16 @@
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1875570081.180948</v>
+        <v>1343230055.057374</v>
       </c>
       <c r="F58" t="n">
-        <v>0.2027335630244657</v>
+        <v>0.144859711312334</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03976517416336944</v>
+        <v>0.03374342984618474</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
-      </c>
-      <c r="I58" t="n">
-        <v>0</v>
-      </c>
-      <c r="J58" t="n">
-        <v>937785037.4547614</v>
       </c>
     </row>
     <row r="59">
@@ -2428,28 +2076,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4135445318.631604</v>
+        <v>3692098432.072487</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1031694840437919</v>
+        <v>0.07960850843159964</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03412204966993256</v>
+        <v>0.03479281174147383</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
-      </c>
-      <c r="I59" t="n">
-        <v>78</v>
-      </c>
-      <c r="J59" t="n">
-        <v>2067722628.714336</v>
       </c>
     </row>
     <row r="60">
@@ -2462,28 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>2803472098.60754</v>
+        <v>3597690534.889045</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1271257559239012</v>
+        <v>0.2005420044481407</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02498684738011138</v>
+        <v>0.02631074911085728</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
-      <c r="I60" t="n">
-        <v>89</v>
-      </c>
-      <c r="J60" t="n">
-        <v>1401736099.037396</v>
+        <v>1</v>
       </c>
     </row>
     <row r="61">
@@ -2502,22 +2138,16 @@
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2443563835.499613</v>
+        <v>2751875648.681365</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1713961027435384</v>
+        <v>0.1291427568280416</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0282252470267158</v>
+        <v>0.03139461308899275</v>
       </c>
       <c r="H61" t="b">
-        <v>0</v>
-      </c>
-      <c r="I61" t="n">
-        <v>99</v>
-      </c>
-      <c r="J61" t="n">
-        <v>1221781950.693943</v>
+        <v>1</v>
       </c>
     </row>
     <row r="62">
@@ -2530,28 +2160,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1538176697.672721</v>
+        <v>1860627018.080138</v>
       </c>
       <c r="F62" t="n">
-        <v>0.153272034679688</v>
+        <v>0.1265058064749478</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04520931872193067</v>
+        <v>0.03843594657632457</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
-      </c>
-      <c r="I62" t="n">
-        <v>0</v>
-      </c>
-      <c r="J62" t="n">
-        <v>769088337.6396093</v>
       </c>
     </row>
     <row r="63">
@@ -2570,22 +2194,16 @@
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>4581245273.222966</v>
+        <v>5370770394.935946</v>
       </c>
       <c r="F63" t="n">
-        <v>0.08314827018065274</v>
+        <v>0.06538011251792884</v>
       </c>
       <c r="G63" t="n">
-        <v>0.04196605601302908</v>
+        <v>0.03538632737041562</v>
       </c>
       <c r="H63" t="b">
-        <v>0</v>
-      </c>
-      <c r="I63" t="n">
-        <v>82</v>
-      </c>
-      <c r="J63" t="n">
-        <v>2290622673.044569</v>
+        <v>1</v>
       </c>
     </row>
     <row r="64">
@@ -2598,28 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>4778940290.737368</v>
+        <v>5547045601.089229</v>
       </c>
       <c r="F64" t="n">
-        <v>0.180114330841422</v>
+        <v>0.1697591472688141</v>
       </c>
       <c r="G64" t="n">
-        <v>0.03496687743311022</v>
+        <v>0.02402172145790468</v>
       </c>
       <c r="H64" t="b">
         <v>0</v>
-      </c>
-      <c r="I64" t="n">
-        <v>89</v>
-      </c>
-      <c r="J64" t="n">
-        <v>2389470236.019286</v>
       </c>
     </row>
     <row r="65">
@@ -2638,22 +2250,16 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>3661357179.106617</v>
+        <v>4608522613.202355</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1532074666741566</v>
+        <v>0.1688616585249899</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02294882079217845</v>
+        <v>0.02857131392364585</v>
       </c>
       <c r="H65" t="b">
         <v>0</v>
-      </c>
-      <c r="I65" t="n">
-        <v>103</v>
-      </c>
-      <c r="J65" t="n">
-        <v>1830678628.328822</v>
       </c>
     </row>
     <row r="66">
@@ -2672,22 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4135035121.774318</v>
+        <v>5197373049.935192</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1197821559205804</v>
+        <v>0.1628143075716258</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04924607153418793</v>
+        <v>0.03818345905658453</v>
       </c>
       <c r="H66" t="b">
-        <v>1</v>
-      </c>
-      <c r="I66" t="n">
-        <v>83</v>
-      </c>
-      <c r="J66" t="n">
-        <v>2067517541.686218</v>
+        <v>0</v>
       </c>
     </row>
     <row r="67">
@@ -2700,28 +2300,22 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>2839595929.115375</v>
+        <v>3374983991.441348</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08992727579115861</v>
+        <v>0.08346786514888281</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04233039603540194</v>
+        <v>0.04354295174265622</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
-      </c>
-      <c r="I67" t="n">
-        <v>92</v>
-      </c>
-      <c r="J67" t="n">
-        <v>1419797996.367952</v>
       </c>
     </row>
     <row r="68">
@@ -2734,28 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5196584952.113007</v>
+        <v>5789814559.225624</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1309266774124747</v>
+        <v>0.1566686607409398</v>
       </c>
       <c r="G68" t="n">
-        <v>0.04199240886168095</v>
+        <v>0.03329449477350654</v>
       </c>
       <c r="H68" t="b">
         <v>0</v>
-      </c>
-      <c r="I68" t="n">
-        <v>97</v>
-      </c>
-      <c r="J68" t="n">
-        <v>2598292544.351949</v>
       </c>
     </row>
     <row r="69">
@@ -2768,28 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>1983955689.024529</v>
+        <v>2460561414.078017</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1407915682998014</v>
+        <v>0.1165074921917995</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04651106977120421</v>
+        <v>0.04997853589047422</v>
       </c>
       <c r="H69" t="b">
-        <v>0</v>
-      </c>
-      <c r="I69" t="n">
-        <v>0</v>
-      </c>
-      <c r="J69" t="n">
-        <v>991977847.3716974</v>
+        <v>1</v>
       </c>
     </row>
     <row r="70">
@@ -2802,28 +2384,22 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3281522040.464137</v>
+        <v>3049982110.081193</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07720695081405148</v>
+        <v>0.07363999913947518</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0299658928409883</v>
+        <v>0.04722926221670275</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
-      </c>
-      <c r="I70" t="n">
-        <v>82</v>
-      </c>
-      <c r="J70" t="n">
-        <v>1640761015.614326</v>
       </c>
     </row>
     <row r="71">
@@ -2836,28 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4761915813.336793</v>
+        <v>3789203746.339602</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1551634629250614</v>
+        <v>0.1650219299803084</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02207742320593762</v>
+        <v>0.03193065024203907</v>
       </c>
       <c r="H71" t="b">
         <v>0</v>
-      </c>
-      <c r="I71" t="n">
-        <v>104</v>
-      </c>
-      <c r="J71" t="n">
-        <v>2380957994.632802</v>
       </c>
     </row>
     <row r="72">
@@ -2870,28 +2440,22 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1990469051.069163</v>
+        <v>1596998428.237341</v>
       </c>
       <c r="F72" t="n">
-        <v>0.08671830104676542</v>
+        <v>0.06702313318283157</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04899907493912079</v>
+        <v>0.03533132979485063</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
-      </c>
-      <c r="I72" t="n">
-        <v>0</v>
-      </c>
-      <c r="J72" t="n">
-        <v>995234473.4255444</v>
       </c>
     </row>
     <row r="73">
@@ -2904,28 +2468,22 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2943681338.61604</v>
+        <v>2905744965.899693</v>
       </c>
       <c r="F73" t="n">
-        <v>0.1105819628305853</v>
+        <v>0.09266515438334035</v>
       </c>
       <c r="G73" t="n">
-        <v>0.04321093135809139</v>
+        <v>0.03709326855616101</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
-      </c>
-      <c r="I73" t="n">
-        <v>109</v>
-      </c>
-      <c r="J73" t="n">
-        <v>1471840670.429437</v>
       </c>
     </row>
     <row r="74">
@@ -2944,22 +2502,16 @@
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3128378586.179437</v>
+        <v>3367927907.382705</v>
       </c>
       <c r="F74" t="n">
-        <v>0.161767083301913</v>
+        <v>0.1115849285322567</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02687849496018482</v>
+        <v>0.02614137821362744</v>
       </c>
       <c r="H74" t="b">
-        <v>1</v>
-      </c>
-      <c r="I74" t="n">
-        <v>97</v>
-      </c>
-      <c r="J74" t="n">
-        <v>1564189347.355019</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75">
@@ -2972,28 +2524,22 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2314166552.600734</v>
+        <v>1757546533.270648</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1582249839328642</v>
+        <v>0.1009525376574401</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03564402284535259</v>
+        <v>0.03784868713966099</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
-      </c>
-      <c r="I75" t="n">
-        <v>0</v>
-      </c>
-      <c r="J75" t="n">
-        <v>1157083211.03298</v>
       </c>
     </row>
     <row r="76">
@@ -3006,28 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>5048283891.435855</v>
+        <v>3490115011.803216</v>
       </c>
       <c r="F76" t="n">
-        <v>0.08237527846767638</v>
+        <v>0.1137168317295688</v>
       </c>
       <c r="G76" t="n">
-        <v>0.03146935166102539</v>
+        <v>0.02220506763513634</v>
       </c>
       <c r="H76" t="b">
         <v>0</v>
-      </c>
-      <c r="I76" t="n">
-        <v>63</v>
-      </c>
-      <c r="J76" t="n">
-        <v>2524141974.388329</v>
       </c>
     </row>
     <row r="77">
@@ -3046,22 +2586,16 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2231774631.674949</v>
+        <v>2015656919.466732</v>
       </c>
       <c r="F77" t="n">
-        <v>0.148716405748289</v>
+        <v>0.1628960522939978</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02465062245207634</v>
+        <v>0.02607299040723825</v>
       </c>
       <c r="H77" t="b">
-        <v>0</v>
-      </c>
-      <c r="I77" t="n">
-        <v>0</v>
-      </c>
-      <c r="J77" t="n">
-        <v>1115887411.563397</v>
+        <v>1</v>
       </c>
     </row>
     <row r="78">
@@ -3074,28 +2608,22 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>4216124957.499609</v>
+        <v>3836412292.795124</v>
       </c>
       <c r="F78" t="n">
-        <v>0.1117010016843954</v>
+        <v>0.08361664159858047</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0403950083291772</v>
+        <v>0.04482243558834307</v>
       </c>
       <c r="H78" t="b">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>99</v>
-      </c>
-      <c r="J78" t="n">
-        <v>2108062428.989123</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79">
@@ -3114,22 +2642,16 @@
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1423735226.99146</v>
+        <v>1313704477.559837</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1511884853871633</v>
+        <v>0.1583553631628324</v>
       </c>
       <c r="G79" t="n">
-        <v>0.02540451742929823</v>
+        <v>0.03594765835986241</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
-      </c>
-      <c r="I79" t="n">
-        <v>0</v>
-      </c>
-      <c r="J79" t="n">
-        <v>711867634.3744946</v>
       </c>
     </row>
     <row r="80">
@@ -3142,28 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>5202125569.379176</v>
+        <v>4763193881.745603</v>
       </c>
       <c r="F80" t="n">
-        <v>0.07326750003387242</v>
+        <v>0.107464397665445</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02869420598270559</v>
+        <v>0.02815054943454208</v>
       </c>
       <c r="H80" t="b">
         <v>0</v>
-      </c>
-      <c r="I80" t="n">
-        <v>60</v>
-      </c>
-      <c r="J80" t="n">
-        <v>2601062843.935384</v>
       </c>
     </row>
     <row r="81">
@@ -3182,22 +2698,16 @@
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>5130742443.733356</v>
+        <v>4912301358.844919</v>
       </c>
       <c r="F81" t="n">
-        <v>0.0913003477037754</v>
+        <v>0.1207070343821881</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02098032823707582</v>
+        <v>0.02263107388233413</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
-      </c>
-      <c r="I81" t="n">
-        <v>65</v>
-      </c>
-      <c r="J81" t="n">
-        <v>2565371227.061896</v>
       </c>
     </row>
     <row r="82">
@@ -3216,22 +2726,16 @@
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4955962849.943583</v>
+        <v>4099154065.272785</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1307321753235801</v>
+        <v>0.1346018852972299</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02899788311158622</v>
+        <v>0.02563412140950899</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
-      <c r="I82" t="n">
-        <v>101</v>
-      </c>
-      <c r="J82" t="n">
-        <v>2477981411.374327</v>
+        <v>1</v>
       </c>
     </row>
     <row r="83">
@@ -3244,28 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>1833683095.862789</v>
+        <v>2461304562.952399</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1115070375864396</v>
+        <v>0.1117201756333996</v>
       </c>
       <c r="G83" t="n">
-        <v>0.04558264176586</v>
+        <v>0.03779130875329536</v>
       </c>
       <c r="H83" t="b">
-        <v>0</v>
-      </c>
-      <c r="I83" t="n">
         <v>1</v>
-      </c>
-      <c r="J83" t="n">
-        <v>916841512.571926</v>
       </c>
     </row>
     <row r="84">
@@ -3284,22 +2782,16 @@
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>2268184511.198086</v>
+        <v>1855327361.301102</v>
       </c>
       <c r="F84" t="n">
-        <v>0.07686443696669798</v>
+        <v>0.104497824099246</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04504381826132447</v>
+        <v>0.04706925392936572</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
-      </c>
-      <c r="I84" t="n">
-        <v>2</v>
-      </c>
-      <c r="J84" t="n">
-        <v>1134092221.3072</v>
       </c>
     </row>
     <row r="85">
@@ -3318,22 +2810,16 @@
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>3230894783.096716</v>
+        <v>2985095440.530739</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1744116224611136</v>
+        <v>0.1417654726978834</v>
       </c>
       <c r="G85" t="n">
-        <v>0.0559652151962388</v>
+        <v>0.04037340757309277</v>
       </c>
       <c r="H85" t="b">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>107</v>
-      </c>
-      <c r="J85" t="n">
-        <v>1615447477.207941</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86">
@@ -3346,28 +2832,22 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>1971422420.344849</v>
+        <v>2187639871.065678</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1515163385507767</v>
+        <v>0.1230972601288611</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02476955437455656</v>
+        <v>0.02656740626841782</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
-      </c>
-      <c r="I86" t="n">
-        <v>37</v>
-      </c>
-      <c r="J86" t="n">
-        <v>985711233.8289628</v>
       </c>
     </row>
     <row r="87">
@@ -3380,28 +2860,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1331905730.571949</v>
+        <v>1001536529.236401</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1856623083953981</v>
+        <v>0.1172262291806945</v>
       </c>
       <c r="G87" t="n">
-        <v>0.02909373114219135</v>
+        <v>0.03525516739250136</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
-      </c>
-      <c r="I87" t="n">
-        <v>0</v>
-      </c>
-      <c r="J87" t="n">
-        <v>665952954.6893989</v>
       </c>
     </row>
     <row r="88">
@@ -3414,28 +2888,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>2392577385.385036</v>
+        <v>3398510791.124433</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1292316711898835</v>
+        <v>0.1750904934626674</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03353348972337388</v>
+        <v>0.03028053144516997</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
-      </c>
-      <c r="I88" t="n">
-        <v>113</v>
-      </c>
-      <c r="J88" t="n">
-        <v>1196288663.101873</v>
       </c>
     </row>
     <row r="89">
@@ -3448,28 +2916,22 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>3013298171.047697</v>
+        <v>2966924434.360276</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1329151984243539</v>
+        <v>0.1252101221988348</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03038149940991263</v>
+        <v>0.03310786840205924</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
-      </c>
-      <c r="I89" t="n">
-        <v>99</v>
-      </c>
-      <c r="J89" t="n">
-        <v>1506649122.65887</v>
       </c>
     </row>
     <row r="90">
@@ -3482,28 +2944,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1476988909.355031</v>
+        <v>1662656308.374852</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1315509361736786</v>
+        <v>0.1229443159990487</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03891789763172699</v>
+        <v>0.03740123976055288</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
-      </c>
-      <c r="I90" t="n">
-        <v>0</v>
-      </c>
-      <c r="J90" t="n">
-        <v>738494429.1942558</v>
       </c>
     </row>
     <row r="91">
@@ -3516,28 +2972,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1282277711.753468</v>
+        <v>1390154267.119494</v>
       </c>
       <c r="F91" t="n">
-        <v>0.175926970646255</v>
+        <v>0.1731324975563232</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04525536905662962</v>
+        <v>0.04488512398982939</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
-      </c>
-      <c r="I91" t="n">
-        <v>0</v>
-      </c>
-      <c r="J91" t="n">
-        <v>641138923.8081214</v>
       </c>
     </row>
     <row r="92">
@@ -3550,28 +3000,22 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2925933203.472921</v>
+        <v>1888494077.08644</v>
       </c>
       <c r="F92" t="n">
-        <v>0.1036125699921348</v>
+        <v>0.08263962213873044</v>
       </c>
       <c r="G92" t="n">
-        <v>0.04527073822775184</v>
+        <v>0.03558849312997371</v>
       </c>
       <c r="H92" t="b">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>73</v>
-      </c>
-      <c r="J92" t="n">
-        <v>1462966617.844901</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93">
@@ -3590,22 +3034,16 @@
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>4986369867.361021</v>
+        <v>3190249448.269179</v>
       </c>
       <c r="F93" t="n">
-        <v>0.138415121182681</v>
+        <v>0.1248479001677927</v>
       </c>
       <c r="G93" t="n">
-        <v>0.03461899872907985</v>
+        <v>0.0380144647307818</v>
       </c>
       <c r="H93" t="b">
         <v>0</v>
-      </c>
-      <c r="I93" t="n">
-        <v>91</v>
-      </c>
-      <c r="J93" t="n">
-        <v>2493184870.52631</v>
       </c>
     </row>
     <row r="94">
@@ -3624,22 +3062,16 @@
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2415788829.708286</v>
+        <v>1682293771.76271</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1302234750394126</v>
+        <v>0.1320855947012085</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02993548861009734</v>
+        <v>0.03570509756333373</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
-      </c>
-      <c r="I94" t="n">
-        <v>0</v>
-      </c>
-      <c r="J94" t="n">
-        <v>1207894467.300453</v>
       </c>
     </row>
     <row r="95">
@@ -3652,28 +3084,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>1976298281.104534</v>
+        <v>2352807395.38781</v>
       </c>
       <c r="F95" t="n">
-        <v>0.08451842697304759</v>
+        <v>0.1302910088824684</v>
       </c>
       <c r="G95" t="n">
-        <v>0.04062235083679386</v>
+        <v>0.03857457019920705</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
-      </c>
-      <c r="I95" t="n">
-        <v>69</v>
-      </c>
-      <c r="J95" t="n">
-        <v>988149214.7130131</v>
       </c>
     </row>
     <row r="96">
@@ -3692,22 +3118,16 @@
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>2182052529.919844</v>
+        <v>1963690816.105895</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1337184353703905</v>
+        <v>0.1279656428578347</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03276071860135005</v>
+        <v>0.03513454478233467</v>
       </c>
       <c r="H96" t="b">
-        <v>0</v>
-      </c>
-      <c r="I96" t="n">
-        <v>0</v>
-      </c>
-      <c r="J96" t="n">
-        <v>1091026232.498296</v>
+        <v>1</v>
       </c>
     </row>
     <row r="97">
@@ -3726,22 +3146,16 @@
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>3341679437.179155</v>
+        <v>5210341318.06846</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1141324847794991</v>
+        <v>0.1662885782537626</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02524324336176132</v>
+        <v>0.02759643042879523</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>91</v>
-      </c>
-      <c r="J97" t="n">
-        <v>1670839722.024014</v>
+        <v>0</v>
       </c>
     </row>
     <row r="98">
@@ -3754,28 +3168,22 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3737022288.077236</v>
+        <v>3527000243.206421</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1014081819213425</v>
+        <v>0.1266220063563818</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02448110960869351</v>
+        <v>0.02263005272018009</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
-      </c>
-      <c r="I98" t="n">
-        <v>77</v>
-      </c>
-      <c r="J98" t="n">
-        <v>1868511178.710843</v>
       </c>
     </row>
     <row r="99">
@@ -3794,22 +3202,16 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2088428955.01563</v>
+        <v>3052660478.332875</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1394213096425191</v>
+        <v>0.1007697393490755</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02957139008291581</v>
+        <v>0.02603430413639867</v>
       </c>
       <c r="H99" t="b">
-        <v>0</v>
-      </c>
-      <c r="I99" t="n">
-        <v>90</v>
-      </c>
-      <c r="J99" t="n">
-        <v>1044214397.420428</v>
+        <v>1</v>
       </c>
     </row>
     <row r="100">
@@ -3822,28 +3224,22 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4581311006.056327</v>
+        <v>4190767124.443614</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1302444414772281</v>
+        <v>0.1339613287631794</v>
       </c>
       <c r="G100" t="n">
-        <v>0.01922323894534639</v>
+        <v>0.02097732865394409</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
-      </c>
-      <c r="I100" t="n">
-        <v>89</v>
-      </c>
-      <c r="J100" t="n">
-        <v>2290655620.11201</v>
       </c>
     </row>
     <row r="101">
@@ -3856,28 +3252,22 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2245131668.032474</v>
+        <v>2893324929.844826</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1896396329426268</v>
+        <v>0.1714165756817035</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05754497268486335</v>
+        <v>0.05633924213007494</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
-      </c>
-      <c r="I101" t="n">
-        <v>113</v>
-      </c>
-      <c r="J101" t="n">
-        <v>1122565823.357922</v>
       </c>
     </row>
   </sheetData>

--- a/output/fit_clients/fit_round_286.xlsx
+++ b/output/fit_clients/fit_round_286.xlsx
@@ -486,13 +486,13 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1871410535.318078</v>
+        <v>1718569389.944671</v>
       </c>
       <c r="F2" t="n">
-        <v>0.07508564239507326</v>
+        <v>0.1061883828126006</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0341828759232111</v>
+        <v>0.04327532640166089</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
@@ -514,13 +514,13 @@
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>1945233831.654399</v>
+        <v>2621694902.06617</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1384753906895026</v>
+        <v>0.1391304300445482</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03680930272675395</v>
+        <v>0.03601839481383783</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>4440026596.858335</v>
+        <v>3407084211.35137</v>
       </c>
       <c r="F4" t="n">
-        <v>0.128590149107777</v>
+        <v>0.1084072661933402</v>
       </c>
       <c r="G4" t="n">
-        <v>0.03830040132421288</v>
+        <v>0.02880852225827474</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
@@ -564,19 +564,19 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>2772962854.761405</v>
+        <v>3207670967.612735</v>
       </c>
       <c r="F5" t="n">
-        <v>0.1012354273760121</v>
+        <v>0.0981222639149739</v>
       </c>
       <c r="G5" t="n">
-        <v>0.04258434234688771</v>
+        <v>0.0412950695908618</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
@@ -592,22 +592,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D6" t="n">
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2872992316.780108</v>
+        <v>2347286259.314569</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1013801925099999</v>
+        <v>0.1332646135953181</v>
       </c>
       <c r="G6" t="n">
-        <v>0.04081645550522513</v>
+        <v>0.03919434398117735</v>
       </c>
       <c r="H6" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -620,19 +620,19 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>2594244996.162552</v>
+        <v>1936635224.673212</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06890572315969976</v>
+        <v>0.06757091817315611</v>
       </c>
       <c r="G7" t="n">
-        <v>0.04511237005199694</v>
+        <v>0.03431752821009016</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
@@ -654,16 +654,16 @@
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2582056967.940135</v>
+        <v>2938293053.121459</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2211198629923315</v>
+        <v>0.2141686885254093</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02223761509530087</v>
+        <v>0.02718407704808245</v>
       </c>
       <c r="H8" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -682,13 +682,13 @@
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>1747192881.523072</v>
+        <v>2166540219.952118</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1535001700031343</v>
+        <v>0.1590778770925605</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03740118842082439</v>
+        <v>0.03666657350421475</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
@@ -704,22 +704,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>3655206150.30406</v>
+        <v>4354347570.647907</v>
       </c>
       <c r="F10" t="n">
-        <v>0.2087509173558825</v>
+        <v>0.1881981899247499</v>
       </c>
       <c r="G10" t="n">
-        <v>0.03392507592402666</v>
+        <v>0.04124135472910564</v>
       </c>
       <c r="H10" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11">
@@ -732,19 +732,19 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3173615388.718956</v>
+        <v>3431803990.361618</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1707765253086561</v>
+        <v>0.1601248914258858</v>
       </c>
       <c r="G11" t="n">
-        <v>0.04299860529927377</v>
+        <v>0.03681993766392345</v>
       </c>
       <c r="H11" t="b">
         <v>0</v>
@@ -766,13 +766,13 @@
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2402503793.997268</v>
+        <v>2555136838.864107</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1290793170549103</v>
+        <v>0.1867439870055766</v>
       </c>
       <c r="G12" t="n">
-        <v>0.03300145480779589</v>
+        <v>0.04025298871288861</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
@@ -788,22 +788,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3661468979.551486</v>
+        <v>3715258259.837216</v>
       </c>
       <c r="F13" t="n">
-        <v>0.088043450547772</v>
+        <v>0.08227620814390688</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02227075404055236</v>
+        <v>0.0220993648445181</v>
       </c>
       <c r="H13" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14">
@@ -816,19 +816,19 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>3820141276.416638</v>
+        <v>2896958083.832632</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1365452917361194</v>
+        <v>0.1741605737592035</v>
       </c>
       <c r="G14" t="n">
-        <v>0.04198943621883411</v>
+        <v>0.03936319082952985</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
@@ -844,19 +844,19 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15" t="n">
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1717970878.377441</v>
+        <v>1664280157.8841</v>
       </c>
       <c r="F15" t="n">
-        <v>0.07901510819727607</v>
+        <v>0.0804990265957196</v>
       </c>
       <c r="G15" t="n">
-        <v>0.04883068617225652</v>
+        <v>0.03644050700156067</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
@@ -872,19 +872,19 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16" t="n">
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2332112910.53932</v>
+        <v>2086165107.803177</v>
       </c>
       <c r="F16" t="n">
-        <v>0.08425141429615704</v>
+        <v>0.09833955997881937</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0356403840412523</v>
+        <v>0.03542043062783375</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
@@ -900,22 +900,22 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>4912500124.441167</v>
+        <v>3458724855.30995</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1282845366899366</v>
+        <v>0.1299789660613967</v>
       </c>
       <c r="G17" t="n">
-        <v>0.04440730636052759</v>
+        <v>0.05318941450300468</v>
       </c>
       <c r="H17" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -928,22 +928,22 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>2549206121.008667</v>
+        <v>3032385026.758359</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1241707446646589</v>
+        <v>0.1832817899760593</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02093432546988261</v>
+        <v>0.02138203377497989</v>
       </c>
       <c r="H18" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -962,13 +962,13 @@
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1222091335.674377</v>
+        <v>1201011397.347804</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1380131605649891</v>
+        <v>0.1269964261838827</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01826670083634884</v>
+        <v>0.01864812542050843</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
@@ -984,19 +984,19 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D20" t="n">
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>1775854106.768833</v>
+        <v>2644361979.847917</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1188617959354936</v>
+        <v>0.1350812444547643</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02192622613120944</v>
+        <v>0.02777066411189576</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
@@ -1012,22 +1012,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2228845025.278306</v>
+        <v>2645722397.760184</v>
       </c>
       <c r="F21" t="n">
-        <v>0.0792106269865418</v>
+        <v>0.08012823752343111</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03046870933166189</v>
+        <v>0.03855899201461278</v>
       </c>
       <c r="H21" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -1046,13 +1046,13 @@
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3548061047.874278</v>
+        <v>3578468420.408155</v>
       </c>
       <c r="F22" t="n">
-        <v>0.09408767167937203</v>
+        <v>0.1253341773360906</v>
       </c>
       <c r="G22" t="n">
-        <v>0.05142058909576607</v>
+        <v>0.03928017988589402</v>
       </c>
       <c r="H22" t="b">
         <v>0</v>
@@ -1068,19 +1068,19 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1119005450.011232</v>
+        <v>1472951630.966248</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1549612560571035</v>
+        <v>0.1162532787104925</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04419397745271315</v>
+        <v>0.04431017474060695</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
@@ -1096,22 +1096,22 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>4136663668.101719</v>
+        <v>3057393034.631762</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1411944535624853</v>
+        <v>0.1023986487584472</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03620435612439421</v>
+        <v>0.03578860536136386</v>
       </c>
       <c r="H24" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25">
@@ -1124,19 +1124,19 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D25" t="n">
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1258131098.840657</v>
+        <v>1132948789.434575</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07861006910437611</v>
+        <v>0.07790933104245966</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02249118787303786</v>
+        <v>0.02132407637450501</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
@@ -1158,13 +1158,13 @@
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>1403759193.98546</v>
+        <v>999917345.6820645</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1247484842781508</v>
+        <v>0.1145702248253654</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03454293086676653</v>
+        <v>0.03849055162806157</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
@@ -1180,19 +1180,19 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>3254063759.479032</v>
+        <v>4522324912.630428</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1114855493208085</v>
+        <v>0.1212824911473888</v>
       </c>
       <c r="G27" t="n">
-        <v>0.01694913748640555</v>
+        <v>0.02312032472057931</v>
       </c>
       <c r="H27" t="b">
         <v>1</v>
@@ -1214,13 +1214,13 @@
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>2514495260.968435</v>
+        <v>3355272749.981143</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1394150137898847</v>
+        <v>0.1193998770255492</v>
       </c>
       <c r="G28" t="n">
-        <v>0.03476372102282037</v>
+        <v>0.04148144936052363</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
@@ -1242,16 +1242,16 @@
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>4860192413.975163</v>
+        <v>3838048032.294859</v>
       </c>
       <c r="F29" t="n">
-        <v>0.09873270837094648</v>
+        <v>0.1171961643984514</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03749457576572794</v>
+        <v>0.03560037180225377</v>
       </c>
       <c r="H29" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="30">
@@ -1264,19 +1264,19 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>2180682019.925599</v>
+        <v>1581239310.684443</v>
       </c>
       <c r="F30" t="n">
-        <v>0.1361610211735463</v>
+        <v>0.09842106477498036</v>
       </c>
       <c r="G30" t="n">
-        <v>0.03400106400640857</v>
+        <v>0.02819550391328048</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
@@ -1298,13 +1298,13 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1399579712.1722</v>
+        <v>1243828225.590402</v>
       </c>
       <c r="F31" t="n">
-        <v>0.09514321073364057</v>
+        <v>0.08048998060012494</v>
       </c>
       <c r="G31" t="n">
-        <v>0.03249358532047078</v>
+        <v>0.05203704038426537</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
@@ -1320,19 +1320,19 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1347785202.352487</v>
+        <v>1536652352.107897</v>
       </c>
       <c r="F32" t="n">
-        <v>0.08282130413878491</v>
+        <v>0.09356764022984942</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03148506697493653</v>
+        <v>0.03129741325481478</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
@@ -1348,19 +1348,19 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2686208223.677422</v>
+        <v>2755977521.965184</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1728832106681004</v>
+        <v>0.1657674357615623</v>
       </c>
       <c r="G33" t="n">
-        <v>0.05112275863414766</v>
+        <v>0.03923265827687834</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
@@ -1376,19 +1376,19 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1377545228.575797</v>
+        <v>1154020860.463387</v>
       </c>
       <c r="F34" t="n">
-        <v>0.1112558670494764</v>
+        <v>0.09759539343665341</v>
       </c>
       <c r="G34" t="n">
-        <v>0.01896640308260594</v>
+        <v>0.02032754258063586</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
@@ -1404,19 +1404,19 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>1261824778.481071</v>
+        <v>866317407.6276182</v>
       </c>
       <c r="F35" t="n">
-        <v>0.1171340138376728</v>
+        <v>0.07607885759494142</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03560280515046011</v>
+        <v>0.03790360599634793</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
@@ -1438,13 +1438,13 @@
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>3013009759.241639</v>
+        <v>2895375246.428988</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1661158350931979</v>
+        <v>0.1586178320742992</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01810103137928484</v>
+        <v>0.01783332306198974</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
@@ -1460,19 +1460,19 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2940334891.580274</v>
+        <v>2696926793.745923</v>
       </c>
       <c r="F37" t="n">
-        <v>0.1030263208967005</v>
+        <v>0.09147976746536589</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03528663442524275</v>
+        <v>0.03648548963085151</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
@@ -1494,16 +1494,16 @@
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>2120255304.904944</v>
+        <v>1737344470.504802</v>
       </c>
       <c r="F38" t="n">
-        <v>0.09972826247833246</v>
+        <v>0.1142731900667121</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03114175495187892</v>
+        <v>0.04000323880950873</v>
       </c>
       <c r="H38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -1516,19 +1516,19 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D39" t="n">
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2177468833.479405</v>
+        <v>2194873021.867381</v>
       </c>
       <c r="F39" t="n">
-        <v>0.1821702043773168</v>
+        <v>0.192595387793744</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02020789535467755</v>
+        <v>0.02557650526221767</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
@@ -1544,19 +1544,19 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D40" t="n">
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1320710262.060731</v>
+        <v>1256802662.393034</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1424002786472875</v>
+        <v>0.1153039061121776</v>
       </c>
       <c r="G40" t="n">
-        <v>0.05191975636923254</v>
+        <v>0.04290112038110203</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
@@ -1572,19 +1572,19 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2919637750.888351</v>
+        <v>2566869201.699673</v>
       </c>
       <c r="F41" t="n">
-        <v>0.148181003051292</v>
+        <v>0.1296113921272009</v>
       </c>
       <c r="G41" t="n">
-        <v>0.03218973394470053</v>
+        <v>0.04296774530223326</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
@@ -1600,19 +1600,19 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>3789127841.983663</v>
+        <v>2673814975.652345</v>
       </c>
       <c r="F42" t="n">
-        <v>0.1223124200693706</v>
+        <v>0.09476914345903649</v>
       </c>
       <c r="G42" t="n">
-        <v>0.04590075272456155</v>
+        <v>0.0418587275984051</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
@@ -1634,13 +1634,13 @@
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2626288711.216191</v>
+        <v>2938493970.234401</v>
       </c>
       <c r="F43" t="n">
-        <v>0.1888518641866947</v>
+        <v>0.130094816916975</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01887055396200708</v>
+        <v>0.01652557510390677</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
@@ -1662,13 +1662,13 @@
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2149063511.205239</v>
+        <v>2276935031.383917</v>
       </c>
       <c r="F44" t="n">
-        <v>0.08299992190553587</v>
+        <v>0.06726999846084589</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02844913975826281</v>
+        <v>0.03236759964119817</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
@@ -1690,16 +1690,16 @@
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2023078022.201655</v>
+        <v>2450469961.891692</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1245970924868477</v>
+        <v>0.1472047584792185</v>
       </c>
       <c r="G45" t="n">
-        <v>0.04407665180779546</v>
+        <v>0.05432646052243417</v>
       </c>
       <c r="H45" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46">
@@ -1718,16 +1718,16 @@
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4439928287.1336</v>
+        <v>4783383422.025676</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1128293988084144</v>
+        <v>0.1093932336534374</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04331729082697432</v>
+        <v>0.04170017637233896</v>
       </c>
       <c r="H46" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="47">
@@ -1740,22 +1740,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>5034278196.380929</v>
+        <v>3879400018.436975</v>
       </c>
       <c r="F47" t="n">
-        <v>0.1621370561220281</v>
+        <v>0.15538779517979</v>
       </c>
       <c r="G47" t="n">
-        <v>0.03661612439497146</v>
+        <v>0.05267088619194512</v>
       </c>
       <c r="H47" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="48">
@@ -1774,16 +1774,16 @@
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4016898018.48026</v>
+        <v>4514203024.837705</v>
       </c>
       <c r="F48" t="n">
-        <v>0.07181403144851729</v>
+        <v>0.08308342391904525</v>
       </c>
       <c r="G48" t="n">
-        <v>0.03659107837490221</v>
+        <v>0.02814618799492052</v>
       </c>
       <c r="H48" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49">
@@ -1796,19 +1796,19 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1281130717.942328</v>
+        <v>1235163274.586397</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1213242433683959</v>
+        <v>0.1779443253164145</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02940098094741703</v>
+        <v>0.04099708457790782</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
@@ -1830,13 +1830,13 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>4175014586.643531</v>
+        <v>3417239331.619503</v>
       </c>
       <c r="F50" t="n">
-        <v>0.1337392856277891</v>
+        <v>0.119028609824767</v>
       </c>
       <c r="G50" t="n">
-        <v>0.04662153518490132</v>
+        <v>0.03905859090074105</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
@@ -1852,19 +1852,19 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>949413972.3372803</v>
+        <v>1303449510.788068</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1872777532029826</v>
+        <v>0.1458677252964396</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03613398747157742</v>
+        <v>0.041537234897185</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
@@ -1880,19 +1880,19 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3396671530.123475</v>
+        <v>3836390032.533075</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1005753909264967</v>
+        <v>0.1168112902542878</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0619783039278425</v>
+        <v>0.04764718269266104</v>
       </c>
       <c r="H52" t="b">
         <v>0</v>
@@ -1908,19 +1908,19 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3307267529.171683</v>
+        <v>3306401757.582144</v>
       </c>
       <c r="F53" t="n">
-        <v>0.183606452544355</v>
+        <v>0.2016721243559649</v>
       </c>
       <c r="G53" t="n">
-        <v>0.03253871920040063</v>
+        <v>0.02412040517088488</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
@@ -1936,19 +1936,19 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4175648923.715821</v>
+        <v>4585835646.753284</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1130701683546576</v>
+        <v>0.1627130067396469</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04478986403904525</v>
+        <v>0.04178920942622141</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
@@ -1964,19 +1964,19 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4874402446.420336</v>
+        <v>4303309024.613062</v>
       </c>
       <c r="F55" t="n">
-        <v>0.1864187429572805</v>
+        <v>0.2077163408861304</v>
       </c>
       <c r="G55" t="n">
-        <v>0.02304799856732844</v>
+        <v>0.03034589677262803</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
@@ -1992,19 +1992,19 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1822625471.084494</v>
+        <v>1809637490.19278</v>
       </c>
       <c r="F56" t="n">
-        <v>0.157160635178703</v>
+        <v>0.1479679702420084</v>
       </c>
       <c r="G56" t="n">
-        <v>0.04941631053111766</v>
+        <v>0.03709752584603127</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
@@ -2026,13 +2026,13 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>4335390709.647953</v>
+        <v>3948987783.908138</v>
       </c>
       <c r="F57" t="n">
-        <v>0.121523537919963</v>
+        <v>0.1570132374610932</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02462641011075492</v>
+        <v>0.02715440628766333</v>
       </c>
       <c r="H57" t="b">
         <v>0</v>
@@ -2048,19 +2048,19 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1343230055.057374</v>
+        <v>1212987307.128324</v>
       </c>
       <c r="F58" t="n">
-        <v>0.144859711312334</v>
+        <v>0.1622121926169497</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03374342984618474</v>
+        <v>0.03202145098988872</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
@@ -2076,19 +2076,19 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>3692098432.072487</v>
+        <v>4799737468.729812</v>
       </c>
       <c r="F59" t="n">
-        <v>0.07960850843159964</v>
+        <v>0.1011750147537492</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03479281174147383</v>
+        <v>0.03073986955609531</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
@@ -2104,22 +2104,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3597690534.889045</v>
+        <v>3504053162.637398</v>
       </c>
       <c r="F60" t="n">
-        <v>0.2005420044481407</v>
+        <v>0.1290747018886542</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02631074911085728</v>
+        <v>0.02382360916093996</v>
       </c>
       <c r="H60" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="61">
@@ -2132,22 +2132,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2751875648.681365</v>
+        <v>2323488364.757083</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1291427568280416</v>
+        <v>0.1547144574301623</v>
       </c>
       <c r="G61" t="n">
-        <v>0.03139461308899275</v>
+        <v>0.0313024792080305</v>
       </c>
       <c r="H61" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="62">
@@ -2160,19 +2160,19 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1860627018.080138</v>
+        <v>1975784387.907882</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1265058064749478</v>
+        <v>0.1359032392286247</v>
       </c>
       <c r="G62" t="n">
-        <v>0.03843594657632457</v>
+        <v>0.04026940331292435</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
@@ -2188,19 +2188,19 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>5370770394.935946</v>
+        <v>3446277379.023852</v>
       </c>
       <c r="F63" t="n">
-        <v>0.06538011251792884</v>
+        <v>0.09268099086650063</v>
       </c>
       <c r="G63" t="n">
-        <v>0.03538632737041562</v>
+        <v>0.0378881070187888</v>
       </c>
       <c r="H63" t="b">
         <v>1</v>
@@ -2216,22 +2216,22 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>5547045601.089229</v>
+        <v>3662375018.662728</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1697591472688141</v>
+        <v>0.1428328845946691</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02402172145790468</v>
+        <v>0.02212308331581524</v>
       </c>
       <c r="H64" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="65">
@@ -2244,22 +2244,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D65" t="n">
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>4608522613.202355</v>
+        <v>5122190351.096193</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1688616585249899</v>
+        <v>0.1732016406094468</v>
       </c>
       <c r="G65" t="n">
-        <v>0.02857131392364585</v>
+        <v>0.03225307186001533</v>
       </c>
       <c r="H65" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="66">
@@ -2278,16 +2278,16 @@
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>5197373049.935192</v>
+        <v>4938063534.405478</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1628143075716258</v>
+        <v>0.1016990410032124</v>
       </c>
       <c r="G66" t="n">
-        <v>0.03818345905658453</v>
+        <v>0.04887043429499796</v>
       </c>
       <c r="H66" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="67">
@@ -2300,19 +2300,19 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3374983991.441348</v>
+        <v>3210611665.087148</v>
       </c>
       <c r="F67" t="n">
-        <v>0.08346786514888281</v>
+        <v>0.09438545188324889</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04354295174265622</v>
+        <v>0.04136235494084693</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
@@ -2328,22 +2328,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5789814559.225624</v>
+        <v>5188887239.01014</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1566686607409398</v>
+        <v>0.1392242957985819</v>
       </c>
       <c r="G68" t="n">
-        <v>0.03329449477350654</v>
+        <v>0.05105286239601645</v>
       </c>
       <c r="H68" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="69">
@@ -2356,22 +2356,22 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D69" t="n">
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2460561414.078017</v>
+        <v>2470624062.215295</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1165074921917995</v>
+        <v>0.1694222973134038</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04997853589047422</v>
+        <v>0.04562697820995341</v>
       </c>
       <c r="H69" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70">
@@ -2384,19 +2384,19 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3049982110.081193</v>
+        <v>3313612817.140925</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07363999913947518</v>
+        <v>0.07093501599690087</v>
       </c>
       <c r="G70" t="n">
-        <v>0.04722926221670275</v>
+        <v>0.03778092678751613</v>
       </c>
       <c r="H70" t="b">
         <v>0</v>
@@ -2412,22 +2412,22 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>3789203746.339602</v>
+        <v>4244041497.983735</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1650219299803084</v>
+        <v>0.1518059045177456</v>
       </c>
       <c r="G71" t="n">
-        <v>0.03193065024203907</v>
+        <v>0.02954541725673803</v>
       </c>
       <c r="H71" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="72">
@@ -2440,19 +2440,19 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D72" t="n">
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>1596998428.237341</v>
+        <v>2220017801.428858</v>
       </c>
       <c r="F72" t="n">
-        <v>0.06702313318283157</v>
+        <v>0.07104376269009662</v>
       </c>
       <c r="G72" t="n">
-        <v>0.03533132979485063</v>
+        <v>0.04507991860091952</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
@@ -2468,19 +2468,19 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2905744965.899693</v>
+        <v>2960650773.709085</v>
       </c>
       <c r="F73" t="n">
-        <v>0.09266515438334035</v>
+        <v>0.0995463929872689</v>
       </c>
       <c r="G73" t="n">
-        <v>0.03709326855616101</v>
+        <v>0.0519327418312522</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
@@ -2496,19 +2496,19 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3367927907.382705</v>
+        <v>3965267035.906679</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1115849285322567</v>
+        <v>0.1275810227048023</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02614137821362744</v>
+        <v>0.02510941225913414</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
@@ -2524,19 +2524,19 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>1757546533.270648</v>
+        <v>2176403820.435698</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1009525376574401</v>
+        <v>0.1082011188768506</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03784868713966099</v>
+        <v>0.03719022083831055</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
@@ -2552,22 +2552,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3490115011.803216</v>
+        <v>3547235137.863634</v>
       </c>
       <c r="F76" t="n">
-        <v>0.1137168317295688</v>
+        <v>0.09066326487280484</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02220506763513634</v>
+        <v>0.02277404489007617</v>
       </c>
       <c r="H76" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="77">
@@ -2580,22 +2580,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D77" t="n">
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>2015656919.466732</v>
+        <v>1559801889.513493</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1628960522939978</v>
+        <v>0.1130726427502967</v>
       </c>
       <c r="G77" t="n">
-        <v>0.02607299040723825</v>
+        <v>0.03114512252897421</v>
       </c>
       <c r="H77" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78">
@@ -2614,16 +2614,16 @@
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3836412292.795124</v>
+        <v>3237681094.203426</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08361664159858047</v>
+        <v>0.08561119620852979</v>
       </c>
       <c r="G78" t="n">
-        <v>0.04482243558834307</v>
+        <v>0.03543341078798334</v>
       </c>
       <c r="H78" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="79">
@@ -2636,19 +2636,19 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1313704477.559837</v>
+        <v>1554791047.774577</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1583553631628324</v>
+        <v>0.1091608140226482</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03594765835986241</v>
+        <v>0.03921184581831506</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
@@ -2664,22 +2664,22 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4763193881.745603</v>
+        <v>4490943836.137353</v>
       </c>
       <c r="F80" t="n">
-        <v>0.107464397665445</v>
+        <v>0.1023457627576762</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02815054943454208</v>
+        <v>0.02462086694955756</v>
       </c>
       <c r="H80" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="81">
@@ -2692,19 +2692,19 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4912301358.844919</v>
+        <v>4089905072.358835</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1207070343821881</v>
+        <v>0.1182240404245977</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02263107388233413</v>
+        <v>0.02336329076898073</v>
       </c>
       <c r="H81" t="b">
         <v>0</v>
@@ -2720,22 +2720,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4099154065.272785</v>
+        <v>4932696149.753256</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1346018852972299</v>
+        <v>0.1573699754735499</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02563412140950899</v>
+        <v>0.02474449911531728</v>
       </c>
       <c r="H82" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83">
@@ -2748,22 +2748,22 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2461304562.952399</v>
+        <v>2036093169.630196</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1117201756333996</v>
+        <v>0.1087315020960543</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03779130875329536</v>
+        <v>0.03059294780874625</v>
       </c>
       <c r="H83" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84">
@@ -2776,19 +2776,19 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1855327361.301102</v>
+        <v>1656023856.60856</v>
       </c>
       <c r="F84" t="n">
-        <v>0.104497824099246</v>
+        <v>0.09416695728693707</v>
       </c>
       <c r="G84" t="n">
-        <v>0.04706925392936572</v>
+        <v>0.03190154839411678</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
@@ -2804,19 +2804,19 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2985095440.530739</v>
+        <v>2544791561.5718</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1417654726978834</v>
+        <v>0.1263298165324147</v>
       </c>
       <c r="G85" t="n">
-        <v>0.04037340757309277</v>
+        <v>0.03453433366090461</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
@@ -2838,13 +2838,13 @@
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2187639871.065678</v>
+        <v>2152708174.38618</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1230972601288611</v>
+        <v>0.1049649552143239</v>
       </c>
       <c r="G86" t="n">
-        <v>0.02656740626841782</v>
+        <v>0.01699620910982902</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
@@ -2866,13 +2866,13 @@
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1001536529.236401</v>
+        <v>1038532780.347436</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1172262291806945</v>
+        <v>0.1852456497126017</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03525516739250136</v>
+        <v>0.03467076449481098</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
@@ -2888,19 +2888,19 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D88" t="n">
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3398510791.124433</v>
+        <v>3447643576.493576</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1750904934626674</v>
+        <v>0.1267500283634658</v>
       </c>
       <c r="G88" t="n">
-        <v>0.03028053144516997</v>
+        <v>0.02686349384088559</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
@@ -2916,19 +2916,19 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2966924434.360276</v>
+        <v>2130780648.805315</v>
       </c>
       <c r="F89" t="n">
-        <v>0.1252101221988348</v>
+        <v>0.09668909701175371</v>
       </c>
       <c r="G89" t="n">
-        <v>0.03310786840205924</v>
+        <v>0.04018947003970702</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
@@ -2944,19 +2944,19 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1662656308.374852</v>
+        <v>1852312552.751254</v>
       </c>
       <c r="F90" t="n">
-        <v>0.1229443159990487</v>
+        <v>0.09545115876714351</v>
       </c>
       <c r="G90" t="n">
-        <v>0.03740123976055288</v>
+        <v>0.04754081329553964</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
@@ -2972,19 +2972,19 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1390154267.119494</v>
+        <v>1923949158.404067</v>
       </c>
       <c r="F91" t="n">
-        <v>0.1731324975563232</v>
+        <v>0.13410517595392</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04488512398982939</v>
+        <v>0.04331592508453996</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
@@ -3006,13 +3006,13 @@
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>1888494077.08644</v>
+        <v>2154020382.146353</v>
       </c>
       <c r="F92" t="n">
-        <v>0.08263962213873044</v>
+        <v>0.06978809833583456</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03558849312997371</v>
+        <v>0.03344538498911005</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
@@ -3028,22 +3028,22 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>3190249448.269179</v>
+        <v>5019892682.116182</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1248479001677927</v>
+        <v>0.1163395910048744</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0380144647307818</v>
+        <v>0.0470913720982011</v>
       </c>
       <c r="H93" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="94">
@@ -3056,19 +3056,19 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>1682293771.76271</v>
+        <v>2268974013.010021</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1320855947012085</v>
+        <v>0.1088900768711002</v>
       </c>
       <c r="G94" t="n">
-        <v>0.03570509756333373</v>
+        <v>0.02793310656200657</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
@@ -3084,19 +3084,19 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2352807395.38781</v>
+        <v>2894359487.71386</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1302910088824684</v>
+        <v>0.1182992212914369</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03857457019920705</v>
+        <v>0.03707022048619718</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
@@ -3112,22 +3112,22 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1963690816.105895</v>
+        <v>1950706114.284938</v>
       </c>
       <c r="F96" t="n">
-        <v>0.1279656428578347</v>
+        <v>0.08752095184207208</v>
       </c>
       <c r="G96" t="n">
-        <v>0.03513454478233467</v>
+        <v>0.04061918043376132</v>
       </c>
       <c r="H96" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="97">
@@ -3140,22 +3140,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>5210341318.06846</v>
+        <v>4390996224.737894</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1662885782537626</v>
+        <v>0.1668074697037813</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02759643042879523</v>
+        <v>0.02757738945326921</v>
       </c>
       <c r="H97" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="98">
@@ -3168,19 +3168,19 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>3527000243.206421</v>
+        <v>2893382831.668715</v>
       </c>
       <c r="F98" t="n">
-        <v>0.1266220063563818</v>
+        <v>0.08346390493453476</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02263005272018009</v>
+        <v>0.02345798571187657</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
@@ -3196,22 +3196,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D99" t="n">
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>3052660478.332875</v>
+        <v>2114984898.199451</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1007697393490755</v>
+        <v>0.1058393270166561</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02603430413639867</v>
+        <v>0.02384196657847659</v>
       </c>
       <c r="H99" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="100">
@@ -3224,19 +3224,19 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>4190767124.443614</v>
+        <v>3829745705.245328</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1339613287631794</v>
+        <v>0.159935796186602</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02097732865394409</v>
+        <v>0.02157651172908673</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
@@ -3252,19 +3252,19 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2893324929.844826</v>
+        <v>2254312744.405039</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1714165756817035</v>
+        <v>0.1557509927244371</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05633924213007494</v>
+        <v>0.05148282867520809</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>

--- a/output/fit_clients/fit_round_286.xlsx
+++ b/output/fit_clients/fit_round_286.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H101"/>
+  <dimension ref="A1:K101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -469,6 +469,21 @@
           <t>isSelected</t>
         </is>
       </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>involvement_history</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>last_involving_round</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>oort_utility</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -486,17 +501,24 @@
         <v>557</v>
       </c>
       <c r="E2" t="n">
-        <v>1718569389.944671</v>
+        <v>2002740722.480628</v>
       </c>
       <c r="F2" t="n">
-        <v>0.1061883828126006</v>
+        <v>0.0975480485102613</v>
       </c>
       <c r="G2" t="n">
-        <v>0.04327532640166089</v>
+        <v>0.03809594205374116</v>
       </c>
       <c r="H2" t="b">
         <v>0</v>
       </c>
+      <c r="I2" t="n">
+        <v>0</v>
+      </c>
+      <c r="J2" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K2" t="inlineStr"/>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -508,23 +530,30 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>537</v>
       </c>
       <c r="E3" t="n">
-        <v>2621694902.06617</v>
+        <v>2598435264.582105</v>
       </c>
       <c r="F3" t="n">
-        <v>0.1391304300445482</v>
+        <v>0.1321365997168187</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03601839481383783</v>
+        <v>0.05031051432638354</v>
       </c>
       <c r="H3" t="b">
         <v>0</v>
       </c>
+      <c r="I3" t="n">
+        <v>0</v>
+      </c>
+      <c r="J3" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -536,22 +565,31 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>529</v>
       </c>
       <c r="E4" t="n">
-        <v>3407084211.35137</v>
+        <v>4884044911.335418</v>
       </c>
       <c r="F4" t="n">
-        <v>0.1084072661933402</v>
+        <v>0.1555311532137634</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02880852225827474</v>
+        <v>0.03616801619197193</v>
       </c>
       <c r="H4" t="b">
         <v>0</v>
+      </c>
+      <c r="I4" t="n">
+        <v>152</v>
+      </c>
+      <c r="J4" t="n">
+        <v>285</v>
+      </c>
+      <c r="K4" t="n">
+        <v>85.7786535549826</v>
       </c>
     </row>
     <row r="5">
@@ -564,22 +602,31 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D5" t="n">
         <v>535</v>
       </c>
       <c r="E5" t="n">
-        <v>3207670967.612735</v>
+        <v>3093642830.576339</v>
       </c>
       <c r="F5" t="n">
-        <v>0.0981222639149739</v>
+        <v>0.08100108543861854</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0412950695908618</v>
+        <v>0.04935939409446445</v>
       </c>
       <c r="H5" t="b">
         <v>0</v>
+      </c>
+      <c r="I5" t="n">
+        <v>116</v>
+      </c>
+      <c r="J5" t="n">
+        <v>285</v>
+      </c>
+      <c r="K5" t="n">
+        <v>59.65221006580491</v>
       </c>
     </row>
     <row r="6">
@@ -598,17 +645,24 @@
         <v>500</v>
       </c>
       <c r="E6" t="n">
-        <v>2347286259.314569</v>
+        <v>1769080163.893852</v>
       </c>
       <c r="F6" t="n">
-        <v>0.1332646135953181</v>
+        <v>0.1120575659749433</v>
       </c>
       <c r="G6" t="n">
-        <v>0.03919434398117735</v>
+        <v>0.03439496139288922</v>
       </c>
       <c r="H6" t="b">
         <v>0</v>
       </c>
+      <c r="I6" t="n">
+        <v>0</v>
+      </c>
+      <c r="J6" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K6" t="inlineStr"/>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -620,23 +674,30 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D7" t="n">
         <v>494</v>
       </c>
       <c r="E7" t="n">
-        <v>1936635224.673212</v>
+        <v>2683108050.228327</v>
       </c>
       <c r="F7" t="n">
-        <v>0.06757091817315611</v>
+        <v>0.08445759362596088</v>
       </c>
       <c r="G7" t="n">
-        <v>0.03431752821009016</v>
+        <v>0.04382246892079097</v>
       </c>
       <c r="H7" t="b">
         <v>0</v>
       </c>
+      <c r="I7" t="n">
+        <v>0</v>
+      </c>
+      <c r="J7" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K7" t="inlineStr"/>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -648,23 +709,30 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D8" t="n">
         <v>497</v>
       </c>
       <c r="E8" t="n">
-        <v>2938293053.121459</v>
+        <v>3695680723.653687</v>
       </c>
       <c r="F8" t="n">
-        <v>0.2141686885254093</v>
+        <v>0.199815914702608</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02718407704808245</v>
+        <v>0.02764251137560651</v>
       </c>
       <c r="H8" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I8" t="n">
+        <v>76</v>
+      </c>
+      <c r="J8" t="n">
+        <v>286</v>
+      </c>
+      <c r="K8" t="inlineStr"/>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -676,23 +744,30 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D9" t="n">
         <v>599</v>
       </c>
       <c r="E9" t="n">
-        <v>2166540219.952118</v>
+        <v>1489571928.987368</v>
       </c>
       <c r="F9" t="n">
-        <v>0.1590778770925605</v>
+        <v>0.1328684576015453</v>
       </c>
       <c r="G9" t="n">
-        <v>0.03666657350421475</v>
+        <v>0.02439733377949265</v>
       </c>
       <c r="H9" t="b">
         <v>0</v>
       </c>
+      <c r="I9" t="n">
+        <v>0</v>
+      </c>
+      <c r="J9" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -704,22 +779,31 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D10" t="n">
         <v>571</v>
       </c>
       <c r="E10" t="n">
-        <v>4354347570.647907</v>
+        <v>5807514413.778346</v>
       </c>
       <c r="F10" t="n">
-        <v>0.1881981899247499</v>
+        <v>0.1398701015024363</v>
       </c>
       <c r="G10" t="n">
-        <v>0.04124135472910564</v>
+        <v>0.03333250571618981</v>
       </c>
       <c r="H10" t="b">
         <v>1</v>
+      </c>
+      <c r="I10" t="n">
+        <v>256</v>
+      </c>
+      <c r="J10" t="n">
+        <v>286</v>
+      </c>
+      <c r="K10" t="n">
+        <v>89.15147894301035</v>
       </c>
     </row>
     <row r="11">
@@ -732,22 +816,31 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D11" t="n">
         <v>566</v>
       </c>
       <c r="E11" t="n">
-        <v>3431803990.361618</v>
+        <v>4128709409.530799</v>
       </c>
       <c r="F11" t="n">
-        <v>0.1601248914258858</v>
+        <v>0.1625922804502385</v>
       </c>
       <c r="G11" t="n">
-        <v>0.03681993766392345</v>
+        <v>0.03062924922172131</v>
       </c>
       <c r="H11" t="b">
-        <v>0</v>
+        <v>1</v>
+      </c>
+      <c r="I11" t="n">
+        <v>116</v>
+      </c>
+      <c r="J11" t="n">
+        <v>286</v>
+      </c>
+      <c r="K11" t="n">
+        <v>100.3842591687874</v>
       </c>
     </row>
     <row r="12">
@@ -760,23 +853,30 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D12" t="n">
         <v>524</v>
       </c>
       <c r="E12" t="n">
-        <v>2555136838.864107</v>
+        <v>2672513435.566159</v>
       </c>
       <c r="F12" t="n">
-        <v>0.1867439870055766</v>
+        <v>0.1948043893626643</v>
       </c>
       <c r="G12" t="n">
-        <v>0.04025298871288861</v>
+        <v>0.04389287555589617</v>
       </c>
       <c r="H12" t="b">
         <v>0</v>
       </c>
+      <c r="I12" t="n">
+        <v>1</v>
+      </c>
+      <c r="J12" t="n">
+        <v>144</v>
+      </c>
+      <c r="K12" t="inlineStr"/>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -788,23 +888,30 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D13" t="n">
         <v>510</v>
       </c>
       <c r="E13" t="n">
-        <v>3715258259.837216</v>
+        <v>4326134121.269071</v>
       </c>
       <c r="F13" t="n">
-        <v>0.08227620814390688</v>
+        <v>0.07196564609767676</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0220993648445181</v>
+        <v>0.02671354141715743</v>
       </c>
       <c r="H13" t="b">
         <v>1</v>
       </c>
+      <c r="I13" t="n">
+        <v>145</v>
+      </c>
+      <c r="J13" t="n">
+        <v>286</v>
+      </c>
+      <c r="K13" t="inlineStr"/>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -816,23 +923,30 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D14" t="n">
         <v>498</v>
       </c>
       <c r="E14" t="n">
-        <v>2896958083.832632</v>
+        <v>2539566406.31536</v>
       </c>
       <c r="F14" t="n">
-        <v>0.1741605737592035</v>
+        <v>0.1558779803479234</v>
       </c>
       <c r="G14" t="n">
-        <v>0.03936319082952985</v>
+        <v>0.03665733375109959</v>
       </c>
       <c r="H14" t="b">
         <v>0</v>
       </c>
+      <c r="I14" t="n">
+        <v>58</v>
+      </c>
+      <c r="J14" t="n">
+        <v>284</v>
+      </c>
+      <c r="K14" t="inlineStr"/>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -850,17 +964,24 @@
         <v>511</v>
       </c>
       <c r="E15" t="n">
-        <v>1664280157.8841</v>
+        <v>1676753103.599648</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0804990265957196</v>
+        <v>0.07638217341343859</v>
       </c>
       <c r="G15" t="n">
-        <v>0.03644050700156067</v>
+        <v>0.04310154040781367</v>
       </c>
       <c r="H15" t="b">
         <v>0</v>
       </c>
+      <c r="I15" t="n">
+        <v>0</v>
+      </c>
+      <c r="J15" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K15" t="inlineStr"/>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -878,17 +999,24 @@
         <v>505</v>
       </c>
       <c r="E16" t="n">
-        <v>2086165107.803177</v>
+        <v>2558131535.356082</v>
       </c>
       <c r="F16" t="n">
-        <v>0.09833955997881937</v>
+        <v>0.07378172257978732</v>
       </c>
       <c r="G16" t="n">
-        <v>0.03542043062783375</v>
+        <v>0.03227187275446136</v>
       </c>
       <c r="H16" t="b">
         <v>0</v>
       </c>
+      <c r="I16" t="n">
+        <v>0</v>
+      </c>
+      <c r="J16" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K16" t="inlineStr"/>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -900,23 +1028,30 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D17" t="n">
         <v>476</v>
       </c>
       <c r="E17" t="n">
-        <v>3458724855.30995</v>
+        <v>3316626638.34111</v>
       </c>
       <c r="F17" t="n">
-        <v>0.1299789660613967</v>
+        <v>0.1253479915054648</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05318941450300468</v>
+        <v>0.03792281263620509</v>
       </c>
       <c r="H17" t="b">
         <v>0</v>
       </c>
+      <c r="I17" t="n">
+        <v>136</v>
+      </c>
+      <c r="J17" t="n">
+        <v>283</v>
+      </c>
+      <c r="K17" t="inlineStr"/>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -928,22 +1063,31 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D18" t="n">
         <v>504</v>
       </c>
       <c r="E18" t="n">
-        <v>3032385026.758359</v>
+        <v>2977556185.721202</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1832817899760593</v>
+        <v>0.1660340963343762</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02138203377497989</v>
+        <v>0.0241237822986516</v>
       </c>
       <c r="H18" t="b">
         <v>0</v>
+      </c>
+      <c r="I18" t="n">
+        <v>72</v>
+      </c>
+      <c r="J18" t="n">
+        <v>285</v>
+      </c>
+      <c r="K18" t="n">
+        <v>50.12417676532724</v>
       </c>
     </row>
     <row r="19">
@@ -956,23 +1100,30 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D19" t="n">
         <v>409</v>
       </c>
       <c r="E19" t="n">
-        <v>1201011397.347804</v>
+        <v>1011558911.860509</v>
       </c>
       <c r="F19" t="n">
-        <v>0.1269964261838827</v>
+        <v>0.1660587304171463</v>
       </c>
       <c r="G19" t="n">
-        <v>0.01864812542050843</v>
+        <v>0.02245658541057098</v>
       </c>
       <c r="H19" t="b">
         <v>0</v>
       </c>
+      <c r="I19" t="n">
+        <v>0</v>
+      </c>
+      <c r="J19" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K19" t="inlineStr"/>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -990,17 +1141,24 @@
         <v>485</v>
       </c>
       <c r="E20" t="n">
-        <v>2644361979.847917</v>
+        <v>1838148618.325105</v>
       </c>
       <c r="F20" t="n">
-        <v>0.1350812444547643</v>
+        <v>0.134847303100046</v>
       </c>
       <c r="G20" t="n">
-        <v>0.02777066411189576</v>
+        <v>0.02705945596287034</v>
       </c>
       <c r="H20" t="b">
         <v>0</v>
       </c>
+      <c r="I20" t="n">
+        <v>0</v>
+      </c>
+      <c r="J20" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K20" t="inlineStr"/>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -1012,23 +1170,30 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D21" t="n">
         <v>455</v>
       </c>
       <c r="E21" t="n">
-        <v>2645722397.760184</v>
+        <v>2506461146.178094</v>
       </c>
       <c r="F21" t="n">
-        <v>0.08012823752343111</v>
+        <v>0.08080793647255027</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03855899201461278</v>
+        <v>0.03211515868999647</v>
       </c>
       <c r="H21" t="b">
         <v>0</v>
       </c>
+      <c r="I21" t="n">
+        <v>0</v>
+      </c>
+      <c r="J21" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K21" t="inlineStr"/>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -1040,23 +1205,30 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D22" t="n">
         <v>462</v>
       </c>
       <c r="E22" t="n">
-        <v>3578468420.408155</v>
+        <v>3382412285.603778</v>
       </c>
       <c r="F22" t="n">
-        <v>0.1253341773360906</v>
+        <v>0.1003387329913858</v>
       </c>
       <c r="G22" t="n">
-        <v>0.03928017988589402</v>
+        <v>0.04495118377063829</v>
       </c>
       <c r="H22" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I22" t="n">
+        <v>76</v>
+      </c>
+      <c r="J22" t="n">
+        <v>286</v>
+      </c>
+      <c r="K22" t="inlineStr"/>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -1068,23 +1240,30 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D23" t="n">
         <v>460</v>
       </c>
       <c r="E23" t="n">
-        <v>1472951630.966248</v>
+        <v>1183133471.535112</v>
       </c>
       <c r="F23" t="n">
-        <v>0.1162532787104925</v>
+        <v>0.1390049446162382</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04431017474060695</v>
+        <v>0.04097164328679669</v>
       </c>
       <c r="H23" t="b">
         <v>0</v>
       </c>
+      <c r="I23" t="n">
+        <v>0</v>
+      </c>
+      <c r="J23" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K23" t="inlineStr"/>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -1096,23 +1275,30 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D24" t="n">
         <v>476</v>
       </c>
       <c r="E24" t="n">
-        <v>3057393034.631762</v>
+        <v>3141741696.208554</v>
       </c>
       <c r="F24" t="n">
-        <v>0.1023986487584472</v>
+        <v>0.1331999503193853</v>
       </c>
       <c r="G24" t="n">
-        <v>0.03578860536136386</v>
+        <v>0.02609709120910536</v>
       </c>
       <c r="H24" t="b">
-        <v>1</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="n">
+        <v>84</v>
+      </c>
+      <c r="J24" t="n">
+        <v>282</v>
+      </c>
+      <c r="K24" t="inlineStr"/>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -1130,17 +1316,24 @@
         <v>529</v>
       </c>
       <c r="E25" t="n">
-        <v>1132948789.434575</v>
+        <v>1387811171.515024</v>
       </c>
       <c r="F25" t="n">
-        <v>0.07790933104245966</v>
+        <v>0.08666652474747748</v>
       </c>
       <c r="G25" t="n">
-        <v>0.02132407637450501</v>
+        <v>0.02140394976475462</v>
       </c>
       <c r="H25" t="b">
         <v>0</v>
       </c>
+      <c r="I25" t="n">
+        <v>0</v>
+      </c>
+      <c r="J25" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K25" t="inlineStr"/>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -1152,23 +1345,30 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D26" t="n">
         <v>548</v>
       </c>
       <c r="E26" t="n">
-        <v>999917345.6820645</v>
+        <v>1151122098.572838</v>
       </c>
       <c r="F26" t="n">
-        <v>0.1145702248253654</v>
+        <v>0.1108594633233638</v>
       </c>
       <c r="G26" t="n">
-        <v>0.03849055162806157</v>
+        <v>0.03894435110129725</v>
       </c>
       <c r="H26" t="b">
         <v>0</v>
       </c>
+      <c r="I26" t="n">
+        <v>0</v>
+      </c>
+      <c r="J26" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K26" t="inlineStr"/>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -1186,16 +1386,25 @@
         <v>417</v>
       </c>
       <c r="E27" t="n">
-        <v>4522324912.630428</v>
+        <v>3246185997.347913</v>
       </c>
       <c r="F27" t="n">
-        <v>0.1212824911473888</v>
+        <v>0.1538971546954468</v>
       </c>
       <c r="G27" t="n">
-        <v>0.02312032472057931</v>
+        <v>0.02215444896156312</v>
       </c>
       <c r="H27" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I27" t="n">
+        <v>117</v>
+      </c>
+      <c r="J27" t="n">
+        <v>285</v>
+      </c>
+      <c r="K27" t="n">
+        <v>50.8352225923254</v>
       </c>
     </row>
     <row r="28">
@@ -1208,23 +1417,30 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D28" t="n">
         <v>499</v>
       </c>
       <c r="E28" t="n">
-        <v>3355272749.981143</v>
+        <v>2773149002.984704</v>
       </c>
       <c r="F28" t="n">
-        <v>0.1193998770255492</v>
+        <v>0.09449018951446041</v>
       </c>
       <c r="G28" t="n">
-        <v>0.04148144936052363</v>
+        <v>0.04186343946066414</v>
       </c>
       <c r="H28" t="b">
         <v>0</v>
       </c>
+      <c r="I28" t="n">
+        <v>59</v>
+      </c>
+      <c r="J28" t="n">
+        <v>284</v>
+      </c>
+      <c r="K28" t="inlineStr"/>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -1236,22 +1452,31 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D29" t="n">
         <v>585</v>
       </c>
       <c r="E29" t="n">
-        <v>3838048032.294859</v>
+        <v>4648874951.656271</v>
       </c>
       <c r="F29" t="n">
-        <v>0.1171961643984514</v>
+        <v>0.1231565604526762</v>
       </c>
       <c r="G29" t="n">
-        <v>0.03560037180225377</v>
+        <v>0.04173877583957711</v>
       </c>
       <c r="H29" t="b">
         <v>1</v>
+      </c>
+      <c r="I29" t="n">
+        <v>272</v>
+      </c>
+      <c r="J29" t="n">
+        <v>286</v>
+      </c>
+      <c r="K29" t="n">
+        <v>89.51668006178708</v>
       </c>
     </row>
     <row r="30">
@@ -1264,23 +1489,30 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D30" t="n">
         <v>379</v>
       </c>
       <c r="E30" t="n">
-        <v>1581239310.684443</v>
+        <v>1881603537.173548</v>
       </c>
       <c r="F30" t="n">
-        <v>0.09842106477498036</v>
+        <v>0.1037523326994649</v>
       </c>
       <c r="G30" t="n">
-        <v>0.02819550391328048</v>
+        <v>0.02473544338552598</v>
       </c>
       <c r="H30" t="b">
         <v>0</v>
       </c>
+      <c r="I30" t="n">
+        <v>0</v>
+      </c>
+      <c r="J30" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K30" t="inlineStr"/>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -1298,17 +1530,24 @@
         <v>542</v>
       </c>
       <c r="E31" t="n">
-        <v>1243828225.590402</v>
+        <v>1104069974.477158</v>
       </c>
       <c r="F31" t="n">
-        <v>0.08048998060012494</v>
+        <v>0.1081700988796288</v>
       </c>
       <c r="G31" t="n">
-        <v>0.05203704038426537</v>
+        <v>0.04959108281490491</v>
       </c>
       <c r="H31" t="b">
         <v>0</v>
       </c>
+      <c r="I31" t="n">
+        <v>0</v>
+      </c>
+      <c r="J31" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K31" t="inlineStr"/>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -1320,23 +1559,30 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D32" t="n">
         <v>483</v>
       </c>
       <c r="E32" t="n">
-        <v>1536652352.107897</v>
+        <v>1845875720.400306</v>
       </c>
       <c r="F32" t="n">
-        <v>0.09356764022984942</v>
+        <v>0.07367115307611159</v>
       </c>
       <c r="G32" t="n">
-        <v>0.03129741325481478</v>
+        <v>0.03734952567636767</v>
       </c>
       <c r="H32" t="b">
         <v>0</v>
       </c>
+      <c r="I32" t="n">
+        <v>0</v>
+      </c>
+      <c r="J32" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K32" t="inlineStr"/>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -1348,23 +1594,30 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D33" t="n">
         <v>488</v>
       </c>
       <c r="E33" t="n">
-        <v>2755977521.965184</v>
+        <v>1993775460.979411</v>
       </c>
       <c r="F33" t="n">
-        <v>0.1657674357615623</v>
+        <v>0.1435658899180752</v>
       </c>
       <c r="G33" t="n">
-        <v>0.03923265827687834</v>
+        <v>0.05925368143532392</v>
       </c>
       <c r="H33" t="b">
         <v>0</v>
       </c>
+      <c r="I33" t="n">
+        <v>0</v>
+      </c>
+      <c r="J33" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K33" t="inlineStr"/>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -1376,23 +1629,30 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D34" t="n">
         <v>427</v>
       </c>
       <c r="E34" t="n">
-        <v>1154020860.463387</v>
+        <v>1490069157.741183</v>
       </c>
       <c r="F34" t="n">
-        <v>0.09759539343665341</v>
+        <v>0.1013545279768481</v>
       </c>
       <c r="G34" t="n">
-        <v>0.02032754258063586</v>
+        <v>0.02256698405964963</v>
       </c>
       <c r="H34" t="b">
         <v>0</v>
       </c>
+      <c r="I34" t="n">
+        <v>0</v>
+      </c>
+      <c r="J34" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K34" t="inlineStr"/>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -1404,23 +1664,30 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D35" t="n">
         <v>479</v>
       </c>
       <c r="E35" t="n">
-        <v>866317407.6276182</v>
+        <v>949071995.5155929</v>
       </c>
       <c r="F35" t="n">
-        <v>0.07607885759494142</v>
+        <v>0.07140155557766457</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03790360599634793</v>
+        <v>0.04276313434827043</v>
       </c>
       <c r="H35" t="b">
         <v>0</v>
       </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K35" t="inlineStr"/>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -1432,23 +1699,30 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D36" t="n">
         <v>442</v>
       </c>
       <c r="E36" t="n">
-        <v>2895375246.428988</v>
+        <v>3204070570.869939</v>
       </c>
       <c r="F36" t="n">
-        <v>0.1586178320742992</v>
+        <v>0.1177084165363138</v>
       </c>
       <c r="G36" t="n">
-        <v>0.01783332306198974</v>
+        <v>0.01766075351617805</v>
       </c>
       <c r="H36" t="b">
         <v>0</v>
       </c>
+      <c r="I36" t="n">
+        <v>3</v>
+      </c>
+      <c r="J36" t="n">
+        <v>144</v>
+      </c>
+      <c r="K36" t="inlineStr"/>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -1460,23 +1734,30 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D37" t="n">
         <v>493</v>
       </c>
       <c r="E37" t="n">
-        <v>2696926793.745923</v>
+        <v>2221326438.674601</v>
       </c>
       <c r="F37" t="n">
-        <v>0.09147976746536589</v>
+        <v>0.1115751335267364</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03648548963085151</v>
+        <v>0.02776474024580946</v>
       </c>
       <c r="H37" t="b">
         <v>0</v>
       </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K37" t="inlineStr"/>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -1488,23 +1769,30 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D38" t="n">
         <v>525</v>
       </c>
       <c r="E38" t="n">
-        <v>1737344470.504802</v>
+        <v>1433682452.470006</v>
       </c>
       <c r="F38" t="n">
-        <v>0.1142731900667121</v>
+        <v>0.09136721283090485</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04000323880950873</v>
+        <v>0.03088494079978574</v>
       </c>
       <c r="H38" t="b">
         <v>0</v>
       </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K38" t="inlineStr"/>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -1522,17 +1810,24 @@
         <v>597</v>
       </c>
       <c r="E39" t="n">
-        <v>2194873021.867381</v>
+        <v>1741541946.677269</v>
       </c>
       <c r="F39" t="n">
-        <v>0.192595387793744</v>
+        <v>0.1739634791272559</v>
       </c>
       <c r="G39" t="n">
-        <v>0.02557650526221767</v>
+        <v>0.02972710615349755</v>
       </c>
       <c r="H39" t="b">
         <v>0</v>
       </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K39" t="inlineStr"/>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -1550,17 +1845,24 @@
         <v>586</v>
       </c>
       <c r="E40" t="n">
-        <v>1256802662.393034</v>
+        <v>1459454698.109341</v>
       </c>
       <c r="F40" t="n">
-        <v>0.1153039061121776</v>
+        <v>0.1515514938106084</v>
       </c>
       <c r="G40" t="n">
-        <v>0.04290112038110203</v>
+        <v>0.04785119772058535</v>
       </c>
       <c r="H40" t="b">
         <v>0</v>
       </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K40" t="inlineStr"/>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -1572,23 +1874,30 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D41" t="n">
         <v>506</v>
       </c>
       <c r="E41" t="n">
-        <v>2566869201.699673</v>
+        <v>2671323495.195046</v>
       </c>
       <c r="F41" t="n">
-        <v>0.1296113921272009</v>
+        <v>0.1084692475532767</v>
       </c>
       <c r="G41" t="n">
-        <v>0.04296774530223326</v>
+        <v>0.03066071531152851</v>
       </c>
       <c r="H41" t="b">
         <v>0</v>
       </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K41" t="inlineStr"/>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -1600,23 +1909,30 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D42" t="n">
         <v>501</v>
       </c>
       <c r="E42" t="n">
-        <v>2673814975.652345</v>
+        <v>2753671173.89039</v>
       </c>
       <c r="F42" t="n">
-        <v>0.09476914345903649</v>
+        <v>0.1249481095501505</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0418587275984051</v>
+        <v>0.04529174894063529</v>
       </c>
       <c r="H42" t="b">
         <v>0</v>
       </c>
+      <c r="I42" t="n">
+        <v>118</v>
+      </c>
+      <c r="J42" t="n">
+        <v>281</v>
+      </c>
+      <c r="K42" t="inlineStr"/>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -1628,23 +1944,30 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D43" t="n">
         <v>565</v>
       </c>
       <c r="E43" t="n">
-        <v>2938493970.234401</v>
+        <v>2184208104.300293</v>
       </c>
       <c r="F43" t="n">
-        <v>0.130094816916975</v>
+        <v>0.1848015667426688</v>
       </c>
       <c r="G43" t="n">
-        <v>0.01652557510390677</v>
+        <v>0.02561168421099888</v>
       </c>
       <c r="H43" t="b">
         <v>0</v>
       </c>
+      <c r="I43" t="n">
+        <v>0</v>
+      </c>
+      <c r="J43" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K43" t="inlineStr"/>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -1656,23 +1979,30 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D44" t="n">
         <v>587</v>
       </c>
       <c r="E44" t="n">
-        <v>2276935031.383917</v>
+        <v>1458828571.369251</v>
       </c>
       <c r="F44" t="n">
-        <v>0.06726999846084589</v>
+        <v>0.06803098483519587</v>
       </c>
       <c r="G44" t="n">
-        <v>0.03236759964119817</v>
+        <v>0.0296827071110046</v>
       </c>
       <c r="H44" t="b">
         <v>0</v>
       </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K44" t="inlineStr"/>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -1684,23 +2014,30 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D45" t="n">
         <v>440</v>
       </c>
       <c r="E45" t="n">
-        <v>2450469961.891692</v>
+        <v>1876058048.288956</v>
       </c>
       <c r="F45" t="n">
-        <v>0.1472047584792185</v>
+        <v>0.1797235680605743</v>
       </c>
       <c r="G45" t="n">
-        <v>0.05432646052243417</v>
+        <v>0.05491023888359373</v>
       </c>
       <c r="H45" t="b">
         <v>0</v>
       </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K45" t="inlineStr"/>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -1712,23 +2049,30 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="D46" t="n">
         <v>525</v>
       </c>
       <c r="E46" t="n">
-        <v>4783383422.025676</v>
+        <v>3983207971.866104</v>
       </c>
       <c r="F46" t="n">
-        <v>0.1093932336534374</v>
+        <v>0.154523623928628</v>
       </c>
       <c r="G46" t="n">
-        <v>0.04170017637233896</v>
+        <v>0.05379675193824129</v>
       </c>
       <c r="H46" t="b">
         <v>1</v>
       </c>
+      <c r="I46" t="n">
+        <v>168</v>
+      </c>
+      <c r="J46" t="n">
+        <v>286</v>
+      </c>
+      <c r="K46" t="inlineStr"/>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -1740,22 +2084,31 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D47" t="n">
         <v>456</v>
       </c>
       <c r="E47" t="n">
-        <v>3879400018.436975</v>
+        <v>3177230729.114663</v>
       </c>
       <c r="F47" t="n">
-        <v>0.15538779517979</v>
+        <v>0.1630317185268291</v>
       </c>
       <c r="G47" t="n">
-        <v>0.05267088619194512</v>
+        <v>0.0585676363295987</v>
       </c>
       <c r="H47" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I47" t="n">
+        <v>128</v>
+      </c>
+      <c r="J47" t="n">
+        <v>285</v>
+      </c>
+      <c r="K47" t="n">
+        <v>44.89731010392522</v>
       </c>
     </row>
     <row r="48">
@@ -1768,23 +2121,30 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D48" t="n">
         <v>502</v>
       </c>
       <c r="E48" t="n">
-        <v>4514203024.837705</v>
+        <v>3257438785.463438</v>
       </c>
       <c r="F48" t="n">
-        <v>0.08308342391904525</v>
+        <v>0.07090387138524656</v>
       </c>
       <c r="G48" t="n">
-        <v>0.02814618799492052</v>
+        <v>0.03356007777948505</v>
       </c>
       <c r="H48" t="b">
         <v>0</v>
       </c>
+      <c r="I48" t="n">
+        <v>142</v>
+      </c>
+      <c r="J48" t="n">
+        <v>284</v>
+      </c>
+      <c r="K48" t="inlineStr"/>
     </row>
     <row r="49">
       <c r="A49" s="1" t="n">
@@ -1796,23 +2156,30 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D49" t="n">
         <v>510</v>
       </c>
       <c r="E49" t="n">
-        <v>1235163274.586397</v>
+        <v>1908482229.433843</v>
       </c>
       <c r="F49" t="n">
-        <v>0.1779443253164145</v>
+        <v>0.1742853043138509</v>
       </c>
       <c r="G49" t="n">
-        <v>0.04099708457790782</v>
+        <v>0.02898693900432168</v>
       </c>
       <c r="H49" t="b">
         <v>0</v>
       </c>
+      <c r="I49" t="n">
+        <v>0</v>
+      </c>
+      <c r="J49" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K49" t="inlineStr"/>
     </row>
     <row r="50">
       <c r="A50" s="1" t="n">
@@ -1830,17 +2197,24 @@
         <v>514</v>
       </c>
       <c r="E50" t="n">
-        <v>3417239331.619503</v>
+        <v>3013428846.675285</v>
       </c>
       <c r="F50" t="n">
-        <v>0.119028609824767</v>
+        <v>0.1608089073005459</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03905859090074105</v>
+        <v>0.03749015178250121</v>
       </c>
       <c r="H50" t="b">
         <v>0</v>
       </c>
+      <c r="I50" t="n">
+        <v>91</v>
+      </c>
+      <c r="J50" t="n">
+        <v>283</v>
+      </c>
+      <c r="K50" t="inlineStr"/>
     </row>
     <row r="51">
       <c r="A51" s="1" t="n">
@@ -1852,23 +2226,30 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D51" t="n">
         <v>486</v>
       </c>
       <c r="E51" t="n">
-        <v>1303449510.788068</v>
+        <v>1193920516.647982</v>
       </c>
       <c r="F51" t="n">
-        <v>0.1458677252964396</v>
+        <v>0.1430864563916176</v>
       </c>
       <c r="G51" t="n">
-        <v>0.041537234897185</v>
+        <v>0.04411169286507204</v>
       </c>
       <c r="H51" t="b">
         <v>0</v>
       </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K51" t="inlineStr"/>
     </row>
     <row r="52">
       <c r="A52" s="1" t="n">
@@ -1880,23 +2261,30 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D52" t="n">
         <v>565</v>
       </c>
       <c r="E52" t="n">
-        <v>3836390032.533075</v>
+        <v>4976894616.287944</v>
       </c>
       <c r="F52" t="n">
-        <v>0.1168112902542878</v>
+        <v>0.1032664890390414</v>
       </c>
       <c r="G52" t="n">
-        <v>0.04764718269266104</v>
+        <v>0.04368937451673661</v>
       </c>
       <c r="H52" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I52" t="n">
+        <v>178</v>
+      </c>
+      <c r="J52" t="n">
+        <v>286</v>
+      </c>
+      <c r="K52" t="inlineStr"/>
     </row>
     <row r="53">
       <c r="A53" s="1" t="n">
@@ -1908,23 +2296,30 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D53" t="n">
         <v>471</v>
       </c>
       <c r="E53" t="n">
-        <v>3306401757.582144</v>
+        <v>2933263936.057897</v>
       </c>
       <c r="F53" t="n">
-        <v>0.2016721243559649</v>
+        <v>0.1533445572637487</v>
       </c>
       <c r="G53" t="n">
-        <v>0.02412040517088488</v>
+        <v>0.02559221689229227</v>
       </c>
       <c r="H53" t="b">
         <v>0</v>
       </c>
+      <c r="I53" t="n">
+        <v>40</v>
+      </c>
+      <c r="J53" t="n">
+        <v>282</v>
+      </c>
+      <c r="K53" t="inlineStr"/>
     </row>
     <row r="54">
       <c r="A54" s="1" t="n">
@@ -1936,22 +2331,31 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D54" t="n">
         <v>501</v>
       </c>
       <c r="E54" t="n">
-        <v>4585835646.753284</v>
+        <v>4142287493.066736</v>
       </c>
       <c r="F54" t="n">
-        <v>0.1627130067396469</v>
+        <v>0.1325556770123374</v>
       </c>
       <c r="G54" t="n">
-        <v>0.04178920942622141</v>
+        <v>0.03942254513702236</v>
       </c>
       <c r="H54" t="b">
         <v>1</v>
+      </c>
+      <c r="I54" t="n">
+        <v>151</v>
+      </c>
+      <c r="J54" t="n">
+        <v>286</v>
+      </c>
+      <c r="K54" t="n">
+        <v>89.20350586682356</v>
       </c>
     </row>
     <row r="55">
@@ -1964,23 +2368,30 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D55" t="n">
         <v>446</v>
       </c>
       <c r="E55" t="n">
-        <v>4303309024.613062</v>
+        <v>3796348196.289793</v>
       </c>
       <c r="F55" t="n">
-        <v>0.2077163408861304</v>
+        <v>0.1973489928710008</v>
       </c>
       <c r="G55" t="n">
-        <v>0.03034589677262803</v>
+        <v>0.03123097196209419</v>
       </c>
       <c r="H55" t="b">
         <v>1</v>
       </c>
+      <c r="I55" t="n">
+        <v>129</v>
+      </c>
+      <c r="J55" t="n">
+        <v>286</v>
+      </c>
+      <c r="K55" t="inlineStr"/>
     </row>
     <row r="56">
       <c r="A56" s="1" t="n">
@@ -1992,23 +2403,30 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D56" t="n">
         <v>498</v>
       </c>
       <c r="E56" t="n">
-        <v>1809637490.19278</v>
+        <v>1473416302.415739</v>
       </c>
       <c r="F56" t="n">
-        <v>0.1479679702420084</v>
+        <v>0.151625592238757</v>
       </c>
       <c r="G56" t="n">
-        <v>0.03709752584603127</v>
+        <v>0.0441872153464695</v>
       </c>
       <c r="H56" t="b">
         <v>0</v>
       </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K56" t="inlineStr"/>
     </row>
     <row r="57">
       <c r="A57" s="1" t="n">
@@ -2026,17 +2444,24 @@
         <v>496</v>
       </c>
       <c r="E57" t="n">
-        <v>3948987783.908138</v>
+        <v>3439799916.1167</v>
       </c>
       <c r="F57" t="n">
-        <v>0.1570132374610932</v>
+        <v>0.1422547726320296</v>
       </c>
       <c r="G57" t="n">
-        <v>0.02715440628766333</v>
+        <v>0.0239880645432801</v>
       </c>
       <c r="H57" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>116</v>
+      </c>
+      <c r="J57" t="n">
+        <v>286</v>
+      </c>
+      <c r="K57" t="inlineStr"/>
     </row>
     <row r="58">
       <c r="A58" s="1" t="n">
@@ -2048,23 +2473,30 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D58" t="n">
         <v>402</v>
       </c>
       <c r="E58" t="n">
-        <v>1212987307.128324</v>
+        <v>1181881837.777606</v>
       </c>
       <c r="F58" t="n">
-        <v>0.1622121926169497</v>
+        <v>0.1913941641343315</v>
       </c>
       <c r="G58" t="n">
-        <v>0.03202145098988872</v>
+        <v>0.02920562495763141</v>
       </c>
       <c r="H58" t="b">
         <v>0</v>
       </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K58" t="inlineStr"/>
     </row>
     <row r="59">
       <c r="A59" s="1" t="n">
@@ -2076,22 +2508,31 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D59" t="n">
         <v>458</v>
       </c>
       <c r="E59" t="n">
-        <v>4799737468.729812</v>
+        <v>3435219408.120013</v>
       </c>
       <c r="F59" t="n">
-        <v>0.1011750147537492</v>
+        <v>0.1195548484280387</v>
       </c>
       <c r="G59" t="n">
-        <v>0.03073986955609531</v>
+        <v>0.03913984232938702</v>
       </c>
       <c r="H59" t="b">
         <v>0</v>
+      </c>
+      <c r="I59" t="n">
+        <v>138</v>
+      </c>
+      <c r="J59" t="n">
+        <v>285</v>
+      </c>
+      <c r="K59" t="n">
+        <v>56.88193672147905</v>
       </c>
     </row>
     <row r="60">
@@ -2104,23 +2545,30 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D60" t="n">
         <v>490</v>
       </c>
       <c r="E60" t="n">
-        <v>3504053162.637398</v>
+        <v>3615516512.229816</v>
       </c>
       <c r="F60" t="n">
-        <v>0.1290747018886542</v>
+        <v>0.1586482603903071</v>
       </c>
       <c r="G60" t="n">
-        <v>0.02382360916093996</v>
+        <v>0.02431410734807075</v>
       </c>
       <c r="H60" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I60" t="n">
+        <v>47</v>
+      </c>
+      <c r="J60" t="n">
+        <v>286</v>
+      </c>
+      <c r="K60" t="inlineStr"/>
     </row>
     <row r="61">
       <c r="A61" s="1" t="n">
@@ -2132,23 +2580,30 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D61" t="n">
         <v>517</v>
       </c>
       <c r="E61" t="n">
-        <v>2323488364.757083</v>
+        <v>2593517841.44708</v>
       </c>
       <c r="F61" t="n">
-        <v>0.1547144574301623</v>
+        <v>0.1731206480346612</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0313024792080305</v>
+        <v>0.03125395312853526</v>
       </c>
       <c r="H61" t="b">
         <v>0</v>
       </c>
+      <c r="I61" t="n">
+        <v>9</v>
+      </c>
+      <c r="J61" t="n">
+        <v>281</v>
+      </c>
+      <c r="K61" t="inlineStr"/>
     </row>
     <row r="62">
       <c r="A62" s="1" t="n">
@@ -2160,23 +2615,30 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D62" t="n">
         <v>489</v>
       </c>
       <c r="E62" t="n">
-        <v>1975784387.907882</v>
+        <v>1909464898.379328</v>
       </c>
       <c r="F62" t="n">
-        <v>0.1359032392286247</v>
+        <v>0.1364636820365184</v>
       </c>
       <c r="G62" t="n">
-        <v>0.04026940331292435</v>
+        <v>0.03649116899950767</v>
       </c>
       <c r="H62" t="b">
         <v>0</v>
       </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K62" t="inlineStr"/>
     </row>
     <row r="63">
       <c r="A63" s="1" t="n">
@@ -2188,22 +2650,31 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D63" t="n">
         <v>469</v>
       </c>
       <c r="E63" t="n">
-        <v>3446277379.023852</v>
+        <v>5469930174.820535</v>
       </c>
       <c r="F63" t="n">
-        <v>0.09268099086650063</v>
+        <v>0.07952290471969332</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0378881070187888</v>
+        <v>0.04561862927032434</v>
       </c>
       <c r="H63" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I63" t="n">
+        <v>139</v>
+      </c>
+      <c r="J63" t="n">
+        <v>285</v>
+      </c>
+      <c r="K63" t="n">
+        <v>85.53806372425863</v>
       </c>
     </row>
     <row r="64">
@@ -2216,23 +2687,30 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D64" t="n">
         <v>491</v>
       </c>
       <c r="E64" t="n">
-        <v>3662375018.662728</v>
+        <v>3482910960.115916</v>
       </c>
       <c r="F64" t="n">
-        <v>0.1428328845946691</v>
+        <v>0.1639870019445089</v>
       </c>
       <c r="G64" t="n">
-        <v>0.02212308331581524</v>
+        <v>0.02304509985881729</v>
       </c>
       <c r="H64" t="b">
         <v>1</v>
       </c>
+      <c r="I64" t="n">
+        <v>140</v>
+      </c>
+      <c r="J64" t="n">
+        <v>286</v>
+      </c>
+      <c r="K64" t="inlineStr"/>
     </row>
     <row r="65">
       <c r="A65" s="1" t="n">
@@ -2250,16 +2728,25 @@
         <v>527</v>
       </c>
       <c r="E65" t="n">
-        <v>5122190351.096193</v>
+        <v>5200547831.06956</v>
       </c>
       <c r="F65" t="n">
-        <v>0.1732016406094468</v>
+        <v>0.1101571936904589</v>
       </c>
       <c r="G65" t="n">
-        <v>0.03225307186001533</v>
+        <v>0.03112221990153757</v>
       </c>
       <c r="H65" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I65" t="n">
+        <v>229</v>
+      </c>
+      <c r="J65" t="n">
+        <v>285</v>
+      </c>
+      <c r="K65" t="n">
+        <v>88.87421547237567</v>
       </c>
     </row>
     <row r="66">
@@ -2272,23 +2759,30 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D66" t="n">
         <v>475</v>
       </c>
       <c r="E66" t="n">
-        <v>4938063534.405478</v>
+        <v>4204433585.695845</v>
       </c>
       <c r="F66" t="n">
-        <v>0.1016990410032124</v>
+        <v>0.1189357642703857</v>
       </c>
       <c r="G66" t="n">
-        <v>0.04887043429499796</v>
+        <v>0.04565678742981083</v>
       </c>
       <c r="H66" t="b">
         <v>1</v>
       </c>
+      <c r="I66" t="n">
+        <v>141</v>
+      </c>
+      <c r="J66" t="n">
+        <v>286</v>
+      </c>
+      <c r="K66" t="inlineStr"/>
     </row>
     <row r="67">
       <c r="A67" s="1" t="n">
@@ -2300,23 +2794,30 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D67" t="n">
         <v>499</v>
       </c>
       <c r="E67" t="n">
-        <v>3210611665.087148</v>
+        <v>3153692336.275841</v>
       </c>
       <c r="F67" t="n">
-        <v>0.09438545188324889</v>
+        <v>0.09641813272565733</v>
       </c>
       <c r="G67" t="n">
-        <v>0.04136235494084693</v>
+        <v>0.04021262869414022</v>
       </c>
       <c r="H67" t="b">
         <v>0</v>
       </c>
+      <c r="I67" t="n">
+        <v>7</v>
+      </c>
+      <c r="J67" t="n">
+        <v>258</v>
+      </c>
+      <c r="K67" t="inlineStr"/>
     </row>
     <row r="68">
       <c r="A68" s="1" t="n">
@@ -2328,22 +2829,31 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D68" t="n">
         <v>496</v>
       </c>
       <c r="E68" t="n">
-        <v>5188887239.01014</v>
+        <v>5462383916.697245</v>
       </c>
       <c r="F68" t="n">
-        <v>0.1392242957985819</v>
+        <v>0.1040075087573318</v>
       </c>
       <c r="G68" t="n">
-        <v>0.05105286239601645</v>
+        <v>0.03794459789122012</v>
       </c>
       <c r="H68" t="b">
         <v>1</v>
+      </c>
+      <c r="I68" t="n">
+        <v>149</v>
+      </c>
+      <c r="J68" t="n">
+        <v>286</v>
+      </c>
+      <c r="K68" t="n">
+        <v>90.9273557847108</v>
       </c>
     </row>
     <row r="69">
@@ -2362,17 +2872,24 @@
         <v>520</v>
       </c>
       <c r="E69" t="n">
-        <v>2470624062.215295</v>
+        <v>2122320081.678479</v>
       </c>
       <c r="F69" t="n">
-        <v>0.1694222973134038</v>
+        <v>0.1325792961389111</v>
       </c>
       <c r="G69" t="n">
-        <v>0.04562697820995341</v>
+        <v>0.04841045755880299</v>
       </c>
       <c r="H69" t="b">
         <v>0</v>
       </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K69" t="inlineStr"/>
     </row>
     <row r="70">
       <c r="A70" s="1" t="n">
@@ -2384,23 +2901,30 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D70" t="n">
         <v>471</v>
       </c>
       <c r="E70" t="n">
-        <v>3313612817.140925</v>
+        <v>3416973784.584459</v>
       </c>
       <c r="F70" t="n">
-        <v>0.07093501599690087</v>
+        <v>0.08363749233685433</v>
       </c>
       <c r="G70" t="n">
-        <v>0.03778092678751613</v>
+        <v>0.03702862671565243</v>
       </c>
       <c r="H70" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I70" t="n">
+        <v>41</v>
+      </c>
+      <c r="J70" t="n">
+        <v>286</v>
+      </c>
+      <c r="K70" t="inlineStr"/>
     </row>
     <row r="71">
       <c r="A71" s="1" t="n">
@@ -2412,22 +2936,31 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D71" t="n">
         <v>531</v>
       </c>
       <c r="E71" t="n">
-        <v>4244041497.983735</v>
+        <v>4314151629.388273</v>
       </c>
       <c r="F71" t="n">
-        <v>0.1518059045177456</v>
+        <v>0.1640983428405842</v>
       </c>
       <c r="G71" t="n">
-        <v>0.02954541725673803</v>
+        <v>0.02965904309507739</v>
       </c>
       <c r="H71" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I71" t="n">
+        <v>215</v>
+      </c>
+      <c r="J71" t="n">
+        <v>285</v>
+      </c>
+      <c r="K71" t="n">
+        <v>87.90462132227785</v>
       </c>
     </row>
     <row r="72">
@@ -2446,17 +2979,24 @@
         <v>547</v>
       </c>
       <c r="E72" t="n">
-        <v>2220017801.428858</v>
+        <v>2210982486.691814</v>
       </c>
       <c r="F72" t="n">
-        <v>0.07104376269009662</v>
+        <v>0.07348011482446287</v>
       </c>
       <c r="G72" t="n">
-        <v>0.04507991860091952</v>
+        <v>0.03545496931828548</v>
       </c>
       <c r="H72" t="b">
         <v>0</v>
       </c>
+      <c r="I72" t="n">
+        <v>0</v>
+      </c>
+      <c r="J72" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K72" t="inlineStr"/>
     </row>
     <row r="73">
       <c r="A73" s="1" t="n">
@@ -2468,23 +3008,30 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D73" t="n">
         <v>543</v>
       </c>
       <c r="E73" t="n">
-        <v>2960650773.709085</v>
+        <v>2752342293.20807</v>
       </c>
       <c r="F73" t="n">
-        <v>0.0995463929872689</v>
+        <v>0.1092281771553948</v>
       </c>
       <c r="G73" t="n">
-        <v>0.0519327418312522</v>
+        <v>0.05232852287949584</v>
       </c>
       <c r="H73" t="b">
         <v>0</v>
       </c>
+      <c r="I73" t="n">
+        <v>18</v>
+      </c>
+      <c r="J73" t="n">
+        <v>275</v>
+      </c>
+      <c r="K73" t="inlineStr"/>
     </row>
     <row r="74">
       <c r="A74" s="1" t="n">
@@ -2496,22 +3043,31 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D74" t="n">
         <v>514</v>
       </c>
       <c r="E74" t="n">
-        <v>3965267035.906679</v>
+        <v>3773858421.650951</v>
       </c>
       <c r="F74" t="n">
-        <v>0.1275810227048023</v>
+        <v>0.1798792975994577</v>
       </c>
       <c r="G74" t="n">
-        <v>0.02510941225913414</v>
+        <v>0.02241958649530677</v>
       </c>
       <c r="H74" t="b">
         <v>0</v>
+      </c>
+      <c r="I74" t="n">
+        <v>77</v>
+      </c>
+      <c r="J74" t="n">
+        <v>285</v>
+      </c>
+      <c r="K74" t="n">
+        <v>85.00648026907658</v>
       </c>
     </row>
     <row r="75">
@@ -2524,23 +3080,30 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D75" t="n">
         <v>422</v>
       </c>
       <c r="E75" t="n">
-        <v>2176403820.435698</v>
+        <v>1651766175.904299</v>
       </c>
       <c r="F75" t="n">
-        <v>0.1082011188768506</v>
+        <v>0.1352219725438731</v>
       </c>
       <c r="G75" t="n">
-        <v>0.03719022083831055</v>
+        <v>0.03509133780723474</v>
       </c>
       <c r="H75" t="b">
         <v>0</v>
       </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K75" t="inlineStr"/>
     </row>
     <row r="76">
       <c r="A76" s="1" t="n">
@@ -2552,22 +3115,31 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D76" t="n">
         <v>412</v>
       </c>
       <c r="E76" t="n">
-        <v>3547235137.863634</v>
+        <v>4268136958.654918</v>
       </c>
       <c r="F76" t="n">
-        <v>0.09066326487280484</v>
+        <v>0.1228530803684451</v>
       </c>
       <c r="G76" t="n">
-        <v>0.02277404489007617</v>
+        <v>0.02644414702806735</v>
       </c>
       <c r="H76" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I76" t="n">
+        <v>134</v>
+      </c>
+      <c r="J76" t="n">
+        <v>285</v>
+      </c>
+      <c r="K76" t="n">
+        <v>82.17356899394322</v>
       </c>
     </row>
     <row r="77">
@@ -2586,17 +3158,24 @@
         <v>469</v>
       </c>
       <c r="E77" t="n">
-        <v>1559801889.513493</v>
+        <v>1479077329.954429</v>
       </c>
       <c r="F77" t="n">
-        <v>0.1130726427502967</v>
+        <v>0.1483867826414626</v>
       </c>
       <c r="G77" t="n">
-        <v>0.03114512252897421</v>
+        <v>0.01982946840099928</v>
       </c>
       <c r="H77" t="b">
         <v>0</v>
       </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K77" t="inlineStr"/>
     </row>
     <row r="78">
       <c r="A78" s="1" t="n">
@@ -2608,23 +3187,30 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D78" t="n">
         <v>519</v>
       </c>
       <c r="E78" t="n">
-        <v>3237681094.203426</v>
+        <v>4355991186.930348</v>
       </c>
       <c r="F78" t="n">
-        <v>0.08561119620852979</v>
+        <v>0.1239073557594993</v>
       </c>
       <c r="G78" t="n">
-        <v>0.03543341078798334</v>
+        <v>0.05501805563584046</v>
       </c>
       <c r="H78" t="b">
         <v>1</v>
       </c>
+      <c r="I78" t="n">
+        <v>142</v>
+      </c>
+      <c r="J78" t="n">
+        <v>286</v>
+      </c>
+      <c r="K78" t="inlineStr"/>
     </row>
     <row r="79">
       <c r="A79" s="1" t="n">
@@ -2636,23 +3222,30 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D79" t="n">
         <v>457</v>
       </c>
       <c r="E79" t="n">
-        <v>1554791047.774577</v>
+        <v>1542412765.787122</v>
       </c>
       <c r="F79" t="n">
-        <v>0.1091608140226482</v>
+        <v>0.1596110130999127</v>
       </c>
       <c r="G79" t="n">
-        <v>0.03921184581831506</v>
+        <v>0.02929328108354859</v>
       </c>
       <c r="H79" t="b">
         <v>0</v>
       </c>
+      <c r="I79" t="n">
+        <v>0</v>
+      </c>
+      <c r="J79" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K79" t="inlineStr"/>
     </row>
     <row r="80">
       <c r="A80" s="1" t="n">
@@ -2664,22 +3257,31 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D80" t="n">
         <v>403</v>
       </c>
       <c r="E80" t="n">
-        <v>4490943836.137353</v>
+        <v>5358761848.025677</v>
       </c>
       <c r="F80" t="n">
-        <v>0.1023457627576762</v>
+        <v>0.07225864843439679</v>
       </c>
       <c r="G80" t="n">
-        <v>0.02462086694955756</v>
+        <v>0.02521990635506137</v>
       </c>
       <c r="H80" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I80" t="n">
+        <v>140</v>
+      </c>
+      <c r="J80" t="n">
+        <v>285</v>
+      </c>
+      <c r="K80" t="n">
+        <v>65.93528494135634</v>
       </c>
     </row>
     <row r="81">
@@ -2692,23 +3294,30 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D81" t="n">
         <v>414</v>
       </c>
       <c r="E81" t="n">
-        <v>4089905072.358835</v>
+        <v>4603720786.232363</v>
       </c>
       <c r="F81" t="n">
-        <v>0.1182240404245977</v>
+        <v>0.1064798231212902</v>
       </c>
       <c r="G81" t="n">
-        <v>0.02336329076898073</v>
+        <v>0.02150649923924685</v>
       </c>
       <c r="H81" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I81" t="n">
+        <v>131</v>
+      </c>
+      <c r="J81" t="n">
+        <v>286</v>
+      </c>
+      <c r="K81" t="inlineStr"/>
     </row>
     <row r="82">
       <c r="A82" s="1" t="n">
@@ -2720,23 +3329,30 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D82" t="n">
         <v>520</v>
       </c>
       <c r="E82" t="n">
-        <v>4932696149.753256</v>
+        <v>3697079692.702044</v>
       </c>
       <c r="F82" t="n">
-        <v>0.1573699754735499</v>
+        <v>0.1416859363142992</v>
       </c>
       <c r="G82" t="n">
-        <v>0.02474449911531728</v>
+        <v>0.01864572620653929</v>
       </c>
       <c r="H82" t="b">
-        <v>0</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I82" t="n">
+        <v>211</v>
+      </c>
+      <c r="J82" t="n">
+        <v>286</v>
+      </c>
+      <c r="K82" t="inlineStr"/>
     </row>
     <row r="83">
       <c r="A83" s="1" t="n">
@@ -2748,23 +3364,30 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D83" t="n">
         <v>541</v>
       </c>
       <c r="E83" t="n">
-        <v>2036093169.630196</v>
+        <v>1661549716.402636</v>
       </c>
       <c r="F83" t="n">
-        <v>0.1087315020960543</v>
+        <v>0.1177250660473343</v>
       </c>
       <c r="G83" t="n">
-        <v>0.03059294780874625</v>
+        <v>0.0419188422122297</v>
       </c>
       <c r="H83" t="b">
         <v>0</v>
       </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K83" t="inlineStr"/>
     </row>
     <row r="84">
       <c r="A84" s="1" t="n">
@@ -2776,23 +3399,30 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D84" t="n">
         <v>593</v>
       </c>
       <c r="E84" t="n">
-        <v>1656023856.60856</v>
+        <v>2386635868.875687</v>
       </c>
       <c r="F84" t="n">
-        <v>0.09416695728693707</v>
+        <v>0.1142770804711465</v>
       </c>
       <c r="G84" t="n">
-        <v>0.03190154839411678</v>
+        <v>0.05238027087479104</v>
       </c>
       <c r="H84" t="b">
         <v>0</v>
       </c>
+      <c r="I84" t="n">
+        <v>0</v>
+      </c>
+      <c r="J84" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K84" t="inlineStr"/>
     </row>
     <row r="85">
       <c r="A85" s="1" t="n">
@@ -2804,23 +3434,30 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D85" t="n">
         <v>541</v>
       </c>
       <c r="E85" t="n">
-        <v>2544791561.5718</v>
+        <v>2496240174.73799</v>
       </c>
       <c r="F85" t="n">
-        <v>0.1263298165324147</v>
+        <v>0.1458525491038155</v>
       </c>
       <c r="G85" t="n">
-        <v>0.03453433366090461</v>
+        <v>0.04064443275876214</v>
       </c>
       <c r="H85" t="b">
         <v>0</v>
       </c>
+      <c r="I85" t="n">
+        <v>39</v>
+      </c>
+      <c r="J85" t="n">
+        <v>282</v>
+      </c>
+      <c r="K85" t="inlineStr"/>
     </row>
     <row r="86">
       <c r="A86" s="1" t="n">
@@ -2832,23 +3469,30 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D86" t="n">
         <v>502</v>
       </c>
       <c r="E86" t="n">
-        <v>2152708174.38618</v>
+        <v>2596980083.018198</v>
       </c>
       <c r="F86" t="n">
-        <v>0.1049649552143239</v>
+        <v>0.1375322002411976</v>
       </c>
       <c r="G86" t="n">
-        <v>0.01699620910982902</v>
+        <v>0.02131696057502258</v>
       </c>
       <c r="H86" t="b">
         <v>0</v>
       </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K86" t="inlineStr"/>
     </row>
     <row r="87">
       <c r="A87" s="1" t="n">
@@ -2860,23 +3504,30 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D87" t="n">
         <v>496</v>
       </c>
       <c r="E87" t="n">
-        <v>1038532780.347436</v>
+        <v>1433186029.629506</v>
       </c>
       <c r="F87" t="n">
-        <v>0.1852456497126017</v>
+        <v>0.1672674605441457</v>
       </c>
       <c r="G87" t="n">
-        <v>0.03467076449481098</v>
+        <v>0.02855143965214013</v>
       </c>
       <c r="H87" t="b">
         <v>0</v>
       </c>
+      <c r="I87" t="n">
+        <v>0</v>
+      </c>
+      <c r="J87" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K87" t="inlineStr"/>
     </row>
     <row r="88">
       <c r="A88" s="1" t="n">
@@ -2894,17 +3545,24 @@
         <v>555</v>
       </c>
       <c r="E88" t="n">
-        <v>3447643576.493576</v>
+        <v>2310682330.925377</v>
       </c>
       <c r="F88" t="n">
-        <v>0.1267500283634658</v>
+        <v>0.1316117008107846</v>
       </c>
       <c r="G88" t="n">
-        <v>0.02686349384088559</v>
+        <v>0.03036317754232709</v>
       </c>
       <c r="H88" t="b">
         <v>0</v>
       </c>
+      <c r="I88" t="n">
+        <v>41</v>
+      </c>
+      <c r="J88" t="n">
+        <v>284</v>
+      </c>
+      <c r="K88" t="inlineStr"/>
     </row>
     <row r="89">
       <c r="A89" s="1" t="n">
@@ -2916,23 +3574,30 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D89" t="n">
         <v>513</v>
       </c>
       <c r="E89" t="n">
-        <v>2130780648.805315</v>
+        <v>2889683715.61759</v>
       </c>
       <c r="F89" t="n">
-        <v>0.09668909701175371</v>
+        <v>0.139540653471785</v>
       </c>
       <c r="G89" t="n">
-        <v>0.04018947003970702</v>
+        <v>0.03531802134259122</v>
       </c>
       <c r="H89" t="b">
         <v>0</v>
       </c>
+      <c r="I89" t="n">
+        <v>21</v>
+      </c>
+      <c r="J89" t="n">
+        <v>271</v>
+      </c>
+      <c r="K89" t="inlineStr"/>
     </row>
     <row r="90">
       <c r="A90" s="1" t="n">
@@ -2944,23 +3609,30 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D90" t="n">
         <v>583</v>
       </c>
       <c r="E90" t="n">
-        <v>1852312552.751254</v>
+        <v>2078937005.564896</v>
       </c>
       <c r="F90" t="n">
-        <v>0.09545115876714351</v>
+        <v>0.09056750955987157</v>
       </c>
       <c r="G90" t="n">
-        <v>0.04754081329553964</v>
+        <v>0.04978176925807416</v>
       </c>
       <c r="H90" t="b">
         <v>0</v>
       </c>
+      <c r="I90" t="n">
+        <v>0</v>
+      </c>
+      <c r="J90" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K90" t="inlineStr"/>
     </row>
     <row r="91">
       <c r="A91" s="1" t="n">
@@ -2972,23 +3644,30 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D91" t="n">
         <v>473</v>
       </c>
       <c r="E91" t="n">
-        <v>1923949158.404067</v>
+        <v>2104865971.108233</v>
       </c>
       <c r="F91" t="n">
-        <v>0.13410517595392</v>
+        <v>0.1842155300218681</v>
       </c>
       <c r="G91" t="n">
-        <v>0.04331592508453996</v>
+        <v>0.04413694596273634</v>
       </c>
       <c r="H91" t="b">
         <v>0</v>
       </c>
+      <c r="I91" t="n">
+        <v>0</v>
+      </c>
+      <c r="J91" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K91" t="inlineStr"/>
     </row>
     <row r="92">
       <c r="A92" s="1" t="n">
@@ -3000,23 +3679,30 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="D92" t="n">
         <v>515</v>
       </c>
       <c r="E92" t="n">
-        <v>2154020382.146353</v>
+        <v>2058939965.274446</v>
       </c>
       <c r="F92" t="n">
-        <v>0.06978809833583456</v>
+        <v>0.0865614238147501</v>
       </c>
       <c r="G92" t="n">
-        <v>0.03344538498911005</v>
+        <v>0.04099544158220075</v>
       </c>
       <c r="H92" t="b">
         <v>0</v>
       </c>
+      <c r="I92" t="n">
+        <v>0</v>
+      </c>
+      <c r="J92" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K92" t="inlineStr"/>
     </row>
     <row r="93">
       <c r="A93" s="1" t="n">
@@ -3028,23 +3714,30 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D93" t="n">
         <v>478</v>
       </c>
       <c r="E93" t="n">
-        <v>5019892682.116182</v>
+        <v>4258593164.936707</v>
       </c>
       <c r="F93" t="n">
-        <v>0.1163395910048744</v>
+        <v>0.0901160527391717</v>
       </c>
       <c r="G93" t="n">
-        <v>0.0470913720982011</v>
+        <v>0.0487005460302633</v>
       </c>
       <c r="H93" t="b">
         <v>1</v>
       </c>
+      <c r="I93" t="n">
+        <v>125</v>
+      </c>
+      <c r="J93" t="n">
+        <v>286</v>
+      </c>
+      <c r="K93" t="inlineStr"/>
     </row>
     <row r="94">
       <c r="A94" s="1" t="n">
@@ -3056,23 +3749,30 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D94" t="n">
         <v>530</v>
       </c>
       <c r="E94" t="n">
-        <v>2268974013.010021</v>
+        <v>1730476329.84622</v>
       </c>
       <c r="F94" t="n">
-        <v>0.1088900768711002</v>
+        <v>0.1026938399343053</v>
       </c>
       <c r="G94" t="n">
-        <v>0.02793310656200657</v>
+        <v>0.03068485527513466</v>
       </c>
       <c r="H94" t="b">
         <v>0</v>
       </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K94" t="inlineStr"/>
     </row>
     <row r="95">
       <c r="A95" s="1" t="n">
@@ -3084,23 +3784,30 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D95" t="n">
         <v>433</v>
       </c>
       <c r="E95" t="n">
-        <v>2894359487.71386</v>
+        <v>3015603178.275725</v>
       </c>
       <c r="F95" t="n">
-        <v>0.1182992212914369</v>
+        <v>0.1115259178831979</v>
       </c>
       <c r="G95" t="n">
-        <v>0.03707022048619718</v>
+        <v>0.05153258367800449</v>
       </c>
       <c r="H95" t="b">
         <v>0</v>
       </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>127</v>
+      </c>
+      <c r="K95" t="inlineStr"/>
     </row>
     <row r="96">
       <c r="A96" s="1" t="n">
@@ -3112,23 +3819,30 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D96" t="n">
         <v>430</v>
       </c>
       <c r="E96" t="n">
-        <v>1950706114.284938</v>
+        <v>2339665844.361132</v>
       </c>
       <c r="F96" t="n">
-        <v>0.08752095184207208</v>
+        <v>0.119017148313436</v>
       </c>
       <c r="G96" t="n">
-        <v>0.04061918043376132</v>
+        <v>0.03564024638390562</v>
       </c>
       <c r="H96" t="b">
         <v>0</v>
       </c>
+      <c r="I96" t="n">
+        <v>0</v>
+      </c>
+      <c r="J96" t="n">
+        <v>-1</v>
+      </c>
+      <c r="K96" t="inlineStr"/>
     </row>
     <row r="97">
       <c r="A97" s="1" t="n">
@@ -3140,22 +3854,31 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D97" t="n">
         <v>498</v>
       </c>
       <c r="E97" t="n">
-        <v>4390996224.737894</v>
+        <v>3884516353.353516</v>
       </c>
       <c r="F97" t="n">
-        <v>0.1668074697037813</v>
+        <v>0.1310237320556675</v>
       </c>
       <c r="G97" t="n">
-        <v>0.02757738945326921</v>
+        <v>0.01791317416853865</v>
       </c>
       <c r="H97" t="b">
-        <v>1</v>
+        <v>0</v>
+      </c>
+      <c r="I97" t="n">
+        <v>142</v>
+      </c>
+      <c r="J97" t="n">
+        <v>285</v>
+      </c>
+      <c r="K97" t="n">
+        <v>80.67893367607809</v>
       </c>
     </row>
     <row r="98">
@@ -3168,22 +3891,31 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D98" t="n">
         <v>453</v>
       </c>
       <c r="E98" t="n">
-        <v>2893382831.668715</v>
+        <v>3767016624.133098</v>
       </c>
       <c r="F98" t="n">
-        <v>0.08346390493453476</v>
+        <v>0.09815211809618871</v>
       </c>
       <c r="G98" t="n">
-        <v>0.02345798571187657</v>
+        <v>0.02594702493614943</v>
       </c>
       <c r="H98" t="b">
         <v>0</v>
+      </c>
+      <c r="I98" t="n">
+        <v>69</v>
+      </c>
+      <c r="J98" t="n">
+        <v>285</v>
+      </c>
+      <c r="K98" t="n">
+        <v>72.77764321155226</v>
       </c>
     </row>
     <row r="99">
@@ -3202,17 +3934,24 @@
         <v>493</v>
       </c>
       <c r="E99" t="n">
-        <v>2114984898.199451</v>
+        <v>2573905315.176981</v>
       </c>
       <c r="F99" t="n">
-        <v>0.1058393270166561</v>
+        <v>0.1407457750356345</v>
       </c>
       <c r="G99" t="n">
-        <v>0.02384196657847659</v>
+        <v>0.03311910239345457</v>
       </c>
       <c r="H99" t="b">
         <v>0</v>
       </c>
+      <c r="I99" t="n">
+        <v>5</v>
+      </c>
+      <c r="J99" t="n">
+        <v>262</v>
+      </c>
+      <c r="K99" t="inlineStr"/>
     </row>
     <row r="100">
       <c r="A100" s="1" t="n">
@@ -3224,22 +3963,31 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D100" t="n">
         <v>486</v>
       </c>
       <c r="E100" t="n">
-        <v>3829745705.245328</v>
+        <v>3559075892.05694</v>
       </c>
       <c r="F100" t="n">
-        <v>0.159935796186602</v>
+        <v>0.1493253514156453</v>
       </c>
       <c r="G100" t="n">
-        <v>0.02157651172908673</v>
+        <v>0.02771381497881068</v>
       </c>
       <c r="H100" t="b">
         <v>0</v>
+      </c>
+      <c r="I100" t="n">
+        <v>122</v>
+      </c>
+      <c r="J100" t="n">
+        <v>285</v>
+      </c>
+      <c r="K100" t="n">
+        <v>67.64416006592444</v>
       </c>
     </row>
     <row r="101">
@@ -3252,23 +4000,30 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D101" t="n">
         <v>584</v>
       </c>
       <c r="E101" t="n">
-        <v>2254312744.405039</v>
+        <v>3318022710.03815</v>
       </c>
       <c r="F101" t="n">
-        <v>0.1557509927244371</v>
+        <v>0.1768009520853097</v>
       </c>
       <c r="G101" t="n">
-        <v>0.05148282867520809</v>
+        <v>0.05389427520849025</v>
       </c>
       <c r="H101" t="b">
         <v>0</v>
       </c>
+      <c r="I101" t="n">
+        <v>26</v>
+      </c>
+      <c r="J101" t="n">
+        <v>281</v>
+      </c>
+      <c r="K101" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
